--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -150,13 +150,25 @@
   </si>
   <si>
     <t>complete documentation</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Milestone 1</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +183,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,11 +221,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -242,11 +306,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -279,6 +355,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -289,6 +395,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
       <fill>
@@ -299,6 +425,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
@@ -309,6 +445,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -319,6 +465,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
       <fill>
@@ -329,16 +485,531 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -627,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="G27:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -640,7 +1311,7 @@
     <col min="3" max="78" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="8" t="s">
         <v>29</v>
@@ -685,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -696,18 +1367,19 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
@@ -720,18 +1392,19 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="13"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
@@ -742,18 +1415,19 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -766,18 +1440,19 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="13"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
@@ -790,18 +1465,19 @@
         <v>3</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
@@ -816,22 +1492,23 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="13"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
@@ -842,18 +1519,19 @@
         <v>2</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="14"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
@@ -868,20 +1546,21 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
@@ -892,18 +1571,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -914,22 +1594,23 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="13"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -937,19 +1618,24 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -960,22 +1646,23 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
         <v>1</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="13"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
@@ -984,18 +1671,21 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="G14" s="14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="14"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
@@ -1006,9 +1696,9 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15">
         <v>1</v>
       </c>
       <c r="J15" s="5">
@@ -1017,15 +1707,16 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5"/>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="13"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -1034,18 +1725,21 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="14">
+        <v>4</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="14"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -1056,24 +1750,25 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="5">
         <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5"/>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="13"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
@@ -1082,18 +1777,19 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
@@ -1104,24 +1800,25 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19" s="5">
         <v>1</v>
       </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5"/>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="13"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
@@ -1130,18 +1827,19 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -1152,13 +1850,13 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
         <v>1</v>
       </c>
       <c r="J21" s="5">
@@ -1167,15 +1865,16 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5"/>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="15"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="13"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
@@ -1184,18 +1883,21 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="14">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="14"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1206,13 +1908,13 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5">
+      <c r="L23" s="14"/>
+      <c r="M23" s="15">
         <v>1</v>
       </c>
       <c r="N23" s="5">
@@ -1221,11 +1923,12 @@
       <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="13"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
@@ -1234,18 +1937,19 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="14"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1256,13 +1960,13 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5">
+      <c r="L25" s="14"/>
+      <c r="M25" s="15">
         <v>1</v>
       </c>
       <c r="N25" s="5">
@@ -1271,11 +1975,12 @@
       <c r="O25" s="5">
         <v>1</v>
       </c>
-      <c r="P25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="13"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
@@ -1284,38 +1989,69 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="14"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="H27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="L27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="P27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="G28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="11"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:18">
       <c r="A30" s="11"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:18">
       <c r="A31" s="11"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:18">
       <c r="A32" s="11"/>
       <c r="B32" s="2"/>
     </row>
@@ -1328,7 +2064,13 @@
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -1347,14 +2089,28 @@
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:P26 Q21">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P26">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1364,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1377,7 +2133,7 @@
     <col min="3" max="78" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="8" t="s">
         <v>29</v>
@@ -1422,7 +2178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
@@ -1445,15 +2201,15 @@
         <f>IF(Deutsch!F2="","",Deutsch!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="14" t="str">
         <f>IF(Deutsch!G2="","",Deutsch!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="14" t="str">
         <f>IF(Deutsch!H2="","",Deutsch!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="15" t="str">
         <f>IF(Deutsch!I2="","",Deutsch!I2)</f>
         <v/>
       </c>
@@ -1465,11 +2221,11 @@
         <f>IF(Deutsch!K2="","",Deutsch!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="L2" s="14" t="str">
         <f>IF(Deutsch!L2="","",Deutsch!L2)</f>
         <v/>
       </c>
-      <c r="M2" s="5" t="str">
+      <c r="M2" s="15" t="str">
         <f>IF(Deutsch!M2="","",Deutsch!M2)</f>
         <v/>
       </c>
@@ -1481,12 +2237,13 @@
         <f>IF(Deutsch!O2="","",Deutsch!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="P2" s="14" t="str">
         <f>IF(Deutsch!P2="","",Deutsch!P2)</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -1509,15 +2266,15 @@
         <f>IF(Deutsch!F3="","",Deutsch!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="14" t="str">
         <f>IF(Deutsch!G3="","",Deutsch!G3)</f>
         <v/>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="14" t="str">
         <f>IF(Deutsch!H3="","",Deutsch!H3)</f>
         <v/>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="15" t="str">
         <f>IF(Deutsch!I3="","",Deutsch!I3)</f>
         <v/>
       </c>
@@ -1529,11 +2286,11 @@
         <f>IF(Deutsch!K3="","",Deutsch!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="L3" s="14" t="str">
         <f>IF(Deutsch!L3="","",Deutsch!L3)</f>
         <v/>
       </c>
-      <c r="M3" s="5" t="str">
+      <c r="M3" s="15" t="str">
         <f>IF(Deutsch!M3="","",Deutsch!M3)</f>
         <v/>
       </c>
@@ -1545,12 +2302,13 @@
         <f>IF(Deutsch!O3="","",Deutsch!O3)</f>
         <v/>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="P3" s="14" t="str">
         <f>IF(Deutsch!P3="","",Deutsch!P3)</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="13"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
@@ -1571,15 +2329,15 @@
         <f>IF(Deutsch!F4="","",Deutsch!F4)</f>
         <v/>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="14" t="str">
         <f>IF(Deutsch!G4="","",Deutsch!G4)</f>
         <v/>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="14" t="str">
         <f>IF(Deutsch!H4="","",Deutsch!H4)</f>
         <v/>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="15" t="str">
         <f>IF(Deutsch!I4="","",Deutsch!I4)</f>
         <v/>
       </c>
@@ -1591,11 +2349,11 @@
         <f>IF(Deutsch!K4="","",Deutsch!K4)</f>
         <v/>
       </c>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="14" t="str">
         <f>IF(Deutsch!L4="","",Deutsch!L4)</f>
         <v/>
       </c>
-      <c r="M4" s="5" t="str">
+      <c r="M4" s="15" t="str">
         <f>IF(Deutsch!M4="","",Deutsch!M4)</f>
         <v/>
       </c>
@@ -1607,12 +2365,13 @@
         <f>IF(Deutsch!O4="","",Deutsch!O4)</f>
         <v/>
       </c>
-      <c r="P4" s="5" t="str">
+      <c r="P4" s="14" t="str">
         <f>IF(Deutsch!P4="","",Deutsch!P4)</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="13" t="s">
         <v>33</v>
       </c>
@@ -1635,15 +2394,15 @@
         <f>IF(Deutsch!F5="","",Deutsch!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="14" t="str">
         <f>IF(Deutsch!G5="","",Deutsch!G5)</f>
         <v/>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="14" t="str">
         <f>IF(Deutsch!H5="","",Deutsch!H5)</f>
         <v/>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="15" t="str">
         <f>IF(Deutsch!I5="","",Deutsch!I5)</f>
         <v/>
       </c>
@@ -1655,11 +2414,11 @@
         <f>IF(Deutsch!K5="","",Deutsch!K5)</f>
         <v/>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="14" t="str">
         <f>IF(Deutsch!L5="","",Deutsch!L5)</f>
         <v/>
       </c>
-      <c r="M5" s="5" t="str">
+      <c r="M5" s="15" t="str">
         <f>IF(Deutsch!M5="","",Deutsch!M5)</f>
         <v/>
       </c>
@@ -1671,12 +2430,13 @@
         <f>IF(Deutsch!O5="","",Deutsch!O5)</f>
         <v/>
       </c>
-      <c r="P5" s="5" t="str">
+      <c r="P5" s="14" t="str">
         <f>IF(Deutsch!P5="","",Deutsch!P5)</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="13"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
@@ -1697,15 +2457,15 @@
         <f>IF(Deutsch!F6="","",Deutsch!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(Deutsch!G6="","",Deutsch!G6)</f>
         <v/>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="14" t="str">
         <f>IF(Deutsch!H6="","",Deutsch!H6)</f>
         <v/>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="15" t="str">
         <f>IF(Deutsch!I6="","",Deutsch!I6)</f>
         <v/>
       </c>
@@ -1717,11 +2477,11 @@
         <f>IF(Deutsch!K6="","",Deutsch!K6)</f>
         <v/>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" s="14" t="str">
         <f>IF(Deutsch!L6="","",Deutsch!L6)</f>
         <v/>
       </c>
-      <c r="M6" s="5" t="str">
+      <c r="M6" s="15" t="str">
         <f>IF(Deutsch!M6="","",Deutsch!M6)</f>
         <v/>
       </c>
@@ -1733,12 +2493,13 @@
         <f>IF(Deutsch!O6="","",Deutsch!O6)</f>
         <v/>
       </c>
-      <c r="P6" s="5" t="str">
+      <c r="P6" s="14" t="str">
         <f>IF(Deutsch!P6="","",Deutsch!P6)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -1761,15 +2522,15 @@
         <f>IF(Deutsch!F7="","",Deutsch!F7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="14">
         <f>IF(Deutsch!G7="","",Deutsch!G7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="14" t="str">
         <f>IF(Deutsch!H7="","",Deutsch!H7)</f>
         <v/>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(Deutsch!I7="","",Deutsch!I7)</f>
         <v/>
       </c>
@@ -1781,11 +2542,11 @@
         <f>IF(Deutsch!K7="","",Deutsch!K7)</f>
         <v/>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="14" t="str">
         <f>IF(Deutsch!L7="","",Deutsch!L7)</f>
         <v/>
       </c>
-      <c r="M7" s="5" t="str">
+      <c r="M7" s="15" t="str">
         <f>IF(Deutsch!M7="","",Deutsch!M7)</f>
         <v/>
       </c>
@@ -1797,12 +2558,13 @@
         <f>IF(Deutsch!O7="","",Deutsch!O7)</f>
         <v/>
       </c>
-      <c r="P7" s="5" t="str">
+      <c r="P7" s="14" t="str">
         <f>IF(Deutsch!P7="","",Deutsch!P7)</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="13"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
@@ -1823,15 +2585,15 @@
         <f>IF(Deutsch!F8="","",Deutsch!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="14" t="str">
         <f>IF(Deutsch!G8="","",Deutsch!G8)</f>
         <v/>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="14" t="str">
         <f>IF(Deutsch!H8="","",Deutsch!H8)</f>
         <v/>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="15" t="str">
         <f>IF(Deutsch!I8="","",Deutsch!I8)</f>
         <v/>
       </c>
@@ -1843,11 +2605,11 @@
         <f>IF(Deutsch!K8="","",Deutsch!K8)</f>
         <v/>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="14" t="str">
         <f>IF(Deutsch!L8="","",Deutsch!L8)</f>
         <v/>
       </c>
-      <c r="M8" s="5" t="str">
+      <c r="M8" s="15" t="str">
         <f>IF(Deutsch!M8="","",Deutsch!M8)</f>
         <v/>
       </c>
@@ -1859,12 +2621,13 @@
         <f>IF(Deutsch!O8="","",Deutsch!O8)</f>
         <v/>
       </c>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="14" t="str">
         <f>IF(Deutsch!P8="","",Deutsch!P8)</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
@@ -1887,15 +2650,15 @@
         <f>IF(Deutsch!F9="","",Deutsch!F9)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="14">
         <f>IF(Deutsch!G9="","",Deutsch!G9)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="14" t="str">
         <f>IF(Deutsch!H9="","",Deutsch!H9)</f>
         <v/>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="15" t="str">
         <f>IF(Deutsch!I9="","",Deutsch!I9)</f>
         <v/>
       </c>
@@ -1907,11 +2670,11 @@
         <f>IF(Deutsch!K9="","",Deutsch!K9)</f>
         <v/>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="14" t="str">
         <f>IF(Deutsch!L9="","",Deutsch!L9)</f>
         <v/>
       </c>
-      <c r="M9" s="5" t="str">
+      <c r="M9" s="15" t="str">
         <f>IF(Deutsch!M9="","",Deutsch!M9)</f>
         <v/>
       </c>
@@ -1923,12 +2686,13 @@
         <f>IF(Deutsch!O9="","",Deutsch!O9)</f>
         <v/>
       </c>
-      <c r="P9" s="5" t="str">
+      <c r="P9" s="14" t="str">
         <f>IF(Deutsch!P9="","",Deutsch!P9)</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
@@ -1949,15 +2713,15 @@
         <f>IF(Deutsch!F10="","",Deutsch!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="14" t="str">
         <f>IF(Deutsch!G10="","",Deutsch!G10)</f>
         <v/>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="14" t="str">
         <f>IF(Deutsch!H10="","",Deutsch!H10)</f>
         <v/>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="15" t="str">
         <f>IF(Deutsch!I10="","",Deutsch!I10)</f>
         <v/>
       </c>
@@ -1969,11 +2733,11 @@
         <f>IF(Deutsch!K10="","",Deutsch!K10)</f>
         <v/>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="14" t="str">
         <f>IF(Deutsch!L10="","",Deutsch!L10)</f>
         <v/>
       </c>
-      <c r="M10" s="5" t="str">
+      <c r="M10" s="15" t="str">
         <f>IF(Deutsch!M10="","",Deutsch!M10)</f>
         <v/>
       </c>
@@ -1985,12 +2749,13 @@
         <f>IF(Deutsch!O10="","",Deutsch!O10)</f>
         <v/>
       </c>
-      <c r="P10" s="5" t="str">
+      <c r="P10" s="14" t="str">
         <f>IF(Deutsch!P10="","",Deutsch!P10)</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
@@ -2013,15 +2778,15 @@
         <f>IF(Deutsch!F11="","",Deutsch!F11)</f>
         <v/>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="14">
         <f>IF(Deutsch!G11="","",Deutsch!G11)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="14">
         <f>IF(Deutsch!H11="","",Deutsch!H11)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="15" t="str">
         <f>IF(Deutsch!I11="","",Deutsch!I11)</f>
         <v/>
       </c>
@@ -2033,11 +2798,11 @@
         <f>IF(Deutsch!K11="","",Deutsch!K11)</f>
         <v/>
       </c>
-      <c r="L11" s="5" t="str">
+      <c r="L11" s="14" t="str">
         <f>IF(Deutsch!L11="","",Deutsch!L11)</f>
         <v/>
       </c>
-      <c r="M11" s="5" t="str">
+      <c r="M11" s="15" t="str">
         <f>IF(Deutsch!M11="","",Deutsch!M11)</f>
         <v/>
       </c>
@@ -2049,12 +2814,13 @@
         <f>IF(Deutsch!O11="","",Deutsch!O11)</f>
         <v/>
       </c>
-      <c r="P11" s="5" t="str">
+      <c r="P11" s="14" t="str">
         <f>IF(Deutsch!P11="","",Deutsch!P11)</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="13"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -2071,19 +2837,19 @@
         <f>IF(Deutsch!E12="","",Deutsch!E12)</f>
         <v/>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="5">
         <f>IF(Deutsch!F12="","",Deutsch!F12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="5" t="str">
+        <v>4</v>
+      </c>
+      <c r="G12" s="14">
         <f>IF(Deutsch!G12="","",Deutsch!G12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14" t="str">
         <f>IF(Deutsch!H12="","",Deutsch!H12)</f>
         <v/>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="15" t="str">
         <f>IF(Deutsch!I12="","",Deutsch!I12)</f>
         <v/>
       </c>
@@ -2095,11 +2861,11 @@
         <f>IF(Deutsch!K12="","",Deutsch!K12)</f>
         <v/>
       </c>
-      <c r="L12" s="5" t="str">
+      <c r="L12" s="14" t="str">
         <f>IF(Deutsch!L12="","",Deutsch!L12)</f>
         <v/>
       </c>
-      <c r="M12" s="5" t="str">
+      <c r="M12" s="15" t="str">
         <f>IF(Deutsch!M12="","",Deutsch!M12)</f>
         <v/>
       </c>
@@ -2111,12 +2877,13 @@
         <f>IF(Deutsch!O12="","",Deutsch!O12)</f>
         <v/>
       </c>
-      <c r="P12" s="5" t="str">
+      <c r="P12" s="14" t="str">
         <f>IF(Deutsch!P12="","",Deutsch!P12)</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2139,15 +2906,15 @@
         <f>IF(Deutsch!F13="","",Deutsch!F13)</f>
         <v/>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="14" t="str">
         <f>IF(Deutsch!G13="","",Deutsch!G13)</f>
         <v/>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="14">
         <f>IF(Deutsch!H13="","",Deutsch!H13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="15">
         <f>IF(Deutsch!I13="","",Deutsch!I13)</f>
         <v>1</v>
       </c>
@@ -2159,11 +2926,11 @@
         <f>IF(Deutsch!K13="","",Deutsch!K13)</f>
         <v/>
       </c>
-      <c r="L13" s="5" t="str">
+      <c r="L13" s="14" t="str">
         <f>IF(Deutsch!L13="","",Deutsch!L13)</f>
         <v/>
       </c>
-      <c r="M13" s="5" t="str">
+      <c r="M13" s="15" t="str">
         <f>IF(Deutsch!M13="","",Deutsch!M13)</f>
         <v/>
       </c>
@@ -2175,12 +2942,13 @@
         <f>IF(Deutsch!O13="","",Deutsch!O13)</f>
         <v/>
       </c>
-      <c r="P13" s="5" t="str">
+      <c r="P13" s="14" t="str">
         <f>IF(Deutsch!P13="","",Deutsch!P13)</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="13"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
@@ -2201,15 +2969,15 @@
         <f>IF(Deutsch!F14="","",Deutsch!F14)</f>
         <v/>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="14">
         <f>IF(Deutsch!G14="","",Deutsch!G14)</f>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14" t="str">
         <f>IF(Deutsch!H14="","",Deutsch!H14)</f>
         <v/>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="15" t="str">
         <f>IF(Deutsch!I14="","",Deutsch!I14)</f>
         <v/>
       </c>
@@ -2221,11 +2989,11 @@
         <f>IF(Deutsch!K14="","",Deutsch!K14)</f>
         <v/>
       </c>
-      <c r="L14" s="5" t="str">
+      <c r="L14" s="14" t="str">
         <f>IF(Deutsch!L14="","",Deutsch!L14)</f>
         <v/>
       </c>
-      <c r="M14" s="5" t="str">
+      <c r="M14" s="15" t="str">
         <f>IF(Deutsch!M14="","",Deutsch!M14)</f>
         <v/>
       </c>
@@ -2237,12 +3005,13 @@
         <f>IF(Deutsch!O14="","",Deutsch!O14)</f>
         <v/>
       </c>
-      <c r="P14" s="5" t="str">
+      <c r="P14" s="14" t="str">
         <f>IF(Deutsch!P14="","",Deutsch!P14)</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -2265,15 +3034,15 @@
         <f>IF(Deutsch!F15="","",Deutsch!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="14" t="str">
         <f>IF(Deutsch!G15="","",Deutsch!G15)</f>
         <v/>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="14" t="str">
         <f>IF(Deutsch!H15="","",Deutsch!H15)</f>
         <v/>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="15">
         <f>IF(Deutsch!I15="","",Deutsch!I15)</f>
         <v>1</v>
       </c>
@@ -2285,11 +3054,11 @@
         <f>IF(Deutsch!K15="","",Deutsch!K15)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="14">
         <f>IF(Deutsch!L15="","",Deutsch!L15)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="5" t="str">
+      <c r="M15" s="15" t="str">
         <f>IF(Deutsch!M15="","",Deutsch!M15)</f>
         <v/>
       </c>
@@ -2301,12 +3070,13 @@
         <f>IF(Deutsch!O15="","",Deutsch!O15)</f>
         <v/>
       </c>
-      <c r="P15" s="5" t="str">
+      <c r="P15" s="14" t="str">
         <f>IF(Deutsch!P15="","",Deutsch!P15)</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="13"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -2327,15 +3097,15 @@
         <f>IF(Deutsch!F16="","",Deutsch!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="14">
         <f>IF(Deutsch!G16="","",Deutsch!G16)</f>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>4</v>
+      </c>
+      <c r="H16" s="14" t="str">
         <f>IF(Deutsch!H16="","",Deutsch!H16)</f>
         <v/>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="15" t="str">
         <f>IF(Deutsch!I16="","",Deutsch!I16)</f>
         <v/>
       </c>
@@ -2347,11 +3117,11 @@
         <f>IF(Deutsch!K16="","",Deutsch!K16)</f>
         <v/>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="14" t="str">
         <f>IF(Deutsch!L16="","",Deutsch!L16)</f>
         <v/>
       </c>
-      <c r="M16" s="5" t="str">
+      <c r="M16" s="15" t="str">
         <f>IF(Deutsch!M16="","",Deutsch!M16)</f>
         <v/>
       </c>
@@ -2363,12 +3133,13 @@
         <f>IF(Deutsch!O16="","",Deutsch!O16)</f>
         <v/>
       </c>
-      <c r="P16" s="5" t="str">
+      <c r="P16" s="14" t="str">
         <f>IF(Deutsch!P16="","",Deutsch!P16)</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -2391,15 +3162,15 @@
         <f>IF(Deutsch!F17="","",Deutsch!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="14" t="str">
         <f>IF(Deutsch!G17="","",Deutsch!G17)</f>
         <v/>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="14" t="str">
         <f>IF(Deutsch!H17="","",Deutsch!H17)</f>
         <v/>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="15" t="str">
         <f>IF(Deutsch!I17="","",Deutsch!I17)</f>
         <v/>
       </c>
@@ -2411,11 +3182,11 @@
         <f>IF(Deutsch!K17="","",Deutsch!K17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="14">
         <f>IF(Deutsch!L17="","",Deutsch!L17)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="5" t="str">
+      <c r="M17" s="15" t="str">
         <f>IF(Deutsch!M17="","",Deutsch!M17)</f>
         <v/>
       </c>
@@ -2427,12 +3198,13 @@
         <f>IF(Deutsch!O17="","",Deutsch!O17)</f>
         <v/>
       </c>
-      <c r="P17" s="5" t="str">
+      <c r="P17" s="14" t="str">
         <f>IF(Deutsch!P17="","",Deutsch!P17)</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="13"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
@@ -2453,15 +3225,15 @@
         <f>IF(Deutsch!F18="","",Deutsch!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="14" t="str">
         <f>IF(Deutsch!G18="","",Deutsch!G18)</f>
         <v/>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="H18" s="14" t="str">
         <f>IF(Deutsch!H18="","",Deutsch!H18)</f>
         <v/>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="15" t="str">
         <f>IF(Deutsch!I18="","",Deutsch!I18)</f>
         <v/>
       </c>
@@ -2473,11 +3245,11 @@
         <f>IF(Deutsch!K18="","",Deutsch!K18)</f>
         <v/>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="14" t="str">
         <f>IF(Deutsch!L18="","",Deutsch!L18)</f>
         <v/>
       </c>
-      <c r="M18" s="5" t="str">
+      <c r="M18" s="15" t="str">
         <f>IF(Deutsch!M18="","",Deutsch!M18)</f>
         <v/>
       </c>
@@ -2489,12 +3261,13 @@
         <f>IF(Deutsch!O18="","",Deutsch!O18)</f>
         <v/>
       </c>
-      <c r="P18" s="5" t="str">
+      <c r="P18" s="14" t="str">
         <f>IF(Deutsch!P18="","",Deutsch!P18)</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -2517,15 +3290,15 @@
         <f>IF(Deutsch!F19="","",Deutsch!F19)</f>
         <v/>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="14" t="str">
         <f>IF(Deutsch!G19="","",Deutsch!G19)</f>
         <v/>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="H19" s="14" t="str">
         <f>IF(Deutsch!H19="","",Deutsch!H19)</f>
         <v/>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="15" t="str">
         <f>IF(Deutsch!I19="","",Deutsch!I19)</f>
         <v/>
       </c>
@@ -2537,11 +3310,11 @@
         <f>IF(Deutsch!K19="","",Deutsch!K19)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="14">
         <f>IF(Deutsch!L19="","",Deutsch!L19)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="5" t="str">
+      <c r="M19" s="15" t="str">
         <f>IF(Deutsch!M19="","",Deutsch!M19)</f>
         <v/>
       </c>
@@ -2553,12 +3326,13 @@
         <f>IF(Deutsch!O19="","",Deutsch!O19)</f>
         <v/>
       </c>
-      <c r="P19" s="5" t="str">
+      <c r="P19" s="14" t="str">
         <f>IF(Deutsch!P19="","",Deutsch!P19)</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="13"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
@@ -2579,15 +3353,15 @@
         <f>IF(Deutsch!F20="","",Deutsch!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="14" t="str">
         <f>IF(Deutsch!G20="","",Deutsch!G20)</f>
         <v/>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="H20" s="14" t="str">
         <f>IF(Deutsch!H20="","",Deutsch!H20)</f>
         <v/>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="15" t="str">
         <f>IF(Deutsch!I20="","",Deutsch!I20)</f>
         <v/>
       </c>
@@ -2599,11 +3373,11 @@
         <f>IF(Deutsch!K20="","",Deutsch!K20)</f>
         <v/>
       </c>
-      <c r="L20" s="5" t="str">
+      <c r="L20" s="14" t="str">
         <f>IF(Deutsch!L20="","",Deutsch!L20)</f>
         <v/>
       </c>
-      <c r="M20" s="5" t="str">
+      <c r="M20" s="15" t="str">
         <f>IF(Deutsch!M20="","",Deutsch!M20)</f>
         <v/>
       </c>
@@ -2615,12 +3389,13 @@
         <f>IF(Deutsch!O20="","",Deutsch!O20)</f>
         <v/>
       </c>
-      <c r="P20" s="5" t="str">
+      <c r="P20" s="14" t="str">
         <f>IF(Deutsch!P20="","",Deutsch!P20)</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="13" t="s">
         <v>41</v>
       </c>
@@ -2643,15 +3418,15 @@
         <f>IF(Deutsch!F21="","",Deutsch!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="14">
         <f>IF(Deutsch!G21="","",Deutsch!G21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="14">
         <f>IF(Deutsch!H21="","",Deutsch!H21)</f>
         <v>1</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="15">
         <f>IF(Deutsch!I21="","",Deutsch!I21)</f>
         <v>1</v>
       </c>
@@ -2663,11 +3438,11 @@
         <f>IF(Deutsch!K21="","",Deutsch!K21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="14">
         <f>IF(Deutsch!L21="","",Deutsch!L21)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="5" t="str">
+      <c r="M21" s="15" t="str">
         <f>IF(Deutsch!M21="","",Deutsch!M21)</f>
         <v/>
       </c>
@@ -2679,12 +3454,13 @@
         <f>IF(Deutsch!O21="","",Deutsch!O21)</f>
         <v/>
       </c>
-      <c r="P21" s="5" t="str">
+      <c r="P21" s="14" t="str">
         <f>IF(Deutsch!P21="","",Deutsch!P21)</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="13"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
@@ -2705,15 +3481,15 @@
         <f>IF(Deutsch!F22="","",Deutsch!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="14">
         <f>IF(Deutsch!G22="","",Deutsch!G22)</f>
-        <v/>
-      </c>
-      <c r="H22" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14" t="str">
         <f>IF(Deutsch!H22="","",Deutsch!H22)</f>
         <v/>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="15" t="str">
         <f>IF(Deutsch!I22="","",Deutsch!I22)</f>
         <v/>
       </c>
@@ -2725,11 +3501,11 @@
         <f>IF(Deutsch!K22="","",Deutsch!K22)</f>
         <v/>
       </c>
-      <c r="L22" s="5" t="str">
+      <c r="L22" s="14" t="str">
         <f>IF(Deutsch!L22="","",Deutsch!L22)</f>
         <v/>
       </c>
-      <c r="M22" s="5" t="str">
+      <c r="M22" s="15" t="str">
         <f>IF(Deutsch!M22="","",Deutsch!M22)</f>
         <v/>
       </c>
@@ -2741,12 +3517,13 @@
         <f>IF(Deutsch!O22="","",Deutsch!O22)</f>
         <v/>
       </c>
-      <c r="P22" s="5" t="str">
+      <c r="P22" s="14" t="str">
         <f>IF(Deutsch!P22="","",Deutsch!P22)</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
@@ -2769,15 +3546,15 @@
         <f>IF(Deutsch!F23="","",Deutsch!F23)</f>
         <v/>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="14" t="str">
         <f>IF(Deutsch!G23="","",Deutsch!G23)</f>
         <v/>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="14" t="str">
         <f>IF(Deutsch!H23="","",Deutsch!H23)</f>
         <v/>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="15" t="str">
         <f>IF(Deutsch!I23="","",Deutsch!I23)</f>
         <v/>
       </c>
@@ -2789,11 +3566,11 @@
         <f>IF(Deutsch!K23="","",Deutsch!K23)</f>
         <v/>
       </c>
-      <c r="L23" s="5" t="str">
+      <c r="L23" s="14" t="str">
         <f>IF(Deutsch!L23="","",Deutsch!L23)</f>
         <v/>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="15">
         <f>IF(Deutsch!M23="","",Deutsch!M23)</f>
         <v>1</v>
       </c>
@@ -2805,12 +3582,13 @@
         <f>IF(Deutsch!O23="","",Deutsch!O23)</f>
         <v>1</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="14">
         <f>IF(Deutsch!P23="","",Deutsch!P23)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="13"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
@@ -2831,15 +3609,15 @@
         <f>IF(Deutsch!F24="","",Deutsch!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="14" t="str">
         <f>IF(Deutsch!G24="","",Deutsch!G24)</f>
         <v/>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="14" t="str">
         <f>IF(Deutsch!H24="","",Deutsch!H24)</f>
         <v/>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="15" t="str">
         <f>IF(Deutsch!I24="","",Deutsch!I24)</f>
         <v/>
       </c>
@@ -2851,11 +3629,11 @@
         <f>IF(Deutsch!K24="","",Deutsch!K24)</f>
         <v/>
       </c>
-      <c r="L24" s="5" t="str">
+      <c r="L24" s="14" t="str">
         <f>IF(Deutsch!L24="","",Deutsch!L24)</f>
         <v/>
       </c>
-      <c r="M24" s="5" t="str">
+      <c r="M24" s="15" t="str">
         <f>IF(Deutsch!M24="","",Deutsch!M24)</f>
         <v/>
       </c>
@@ -2867,12 +3645,13 @@
         <f>IF(Deutsch!O24="","",Deutsch!O24)</f>
         <v/>
       </c>
-      <c r="P24" s="5" t="str">
+      <c r="P24" s="14" t="str">
         <f>IF(Deutsch!P24="","",Deutsch!P24)</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="13" t="s">
         <v>43</v>
       </c>
@@ -2895,15 +3674,15 @@
         <f>IF(Deutsch!F25="","",Deutsch!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="14" t="str">
         <f>IF(Deutsch!G25="","",Deutsch!G25)</f>
         <v/>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="H25" s="14" t="str">
         <f>IF(Deutsch!H25="","",Deutsch!H25)</f>
         <v/>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="I25" s="15" t="str">
         <f>IF(Deutsch!I25="","",Deutsch!I25)</f>
         <v/>
       </c>
@@ -2915,11 +3694,11 @@
         <f>IF(Deutsch!K25="","",Deutsch!K25)</f>
         <v/>
       </c>
-      <c r="L25" s="5" t="str">
+      <c r="L25" s="14" t="str">
         <f>IF(Deutsch!L25="","",Deutsch!L25)</f>
         <v/>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="15">
         <f>IF(Deutsch!M25="","",Deutsch!M25)</f>
         <v>1</v>
       </c>
@@ -2931,12 +3710,13 @@
         <f>IF(Deutsch!O25="","",Deutsch!O25)</f>
         <v>1</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="14">
         <f>IF(Deutsch!P25="","",Deutsch!P25)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="13"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
@@ -2957,15 +3737,15 @@
         <f>IF(Deutsch!F26="","",Deutsch!F26)</f>
         <v/>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="14" t="str">
         <f>IF(Deutsch!G26="","",Deutsch!G26)</f>
         <v/>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="14" t="str">
         <f>IF(Deutsch!H26="","",Deutsch!H26)</f>
         <v/>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="I26" s="15" t="str">
         <f>IF(Deutsch!I26="","",Deutsch!I26)</f>
         <v/>
       </c>
@@ -2977,11 +3757,11 @@
         <f>IF(Deutsch!K26="","",Deutsch!K26)</f>
         <v/>
       </c>
-      <c r="L26" s="5" t="str">
+      <c r="L26" s="14" t="str">
         <f>IF(Deutsch!L26="","",Deutsch!L26)</f>
         <v/>
       </c>
-      <c r="M26" s="5" t="str">
+      <c r="M26" s="15" t="str">
         <f>IF(Deutsch!M26="","",Deutsch!M26)</f>
         <v/>
       </c>
@@ -2993,32 +3773,63 @@
         <f>IF(Deutsch!O26="","",Deutsch!O26)</f>
         <v/>
       </c>
-      <c r="P26" s="5" t="str">
+      <c r="P26" s="14" t="str">
         <f>IF(Deutsch!P26="","",Deutsch!P26)</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="H27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="L27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="P27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="G28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="11"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:18">
       <c r="A30" s="11"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:18">
       <c r="A31" s="11"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:18">
       <c r="A32" s="11"/>
       <c r="B32" s="2"/>
     </row>
@@ -3031,7 +3842,19 @@
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -3042,26 +3865,70 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P26">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P26">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P26 Q21">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P26">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -297,6 +297,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -306,163 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF66FF66"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF66FF66"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -635,46 +495,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF66FF66"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
@@ -710,266 +530,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF66FF66"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF66FF66"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1367,20 +927,20 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="17"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1392,20 +952,20 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="17"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="13"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1415,20 +975,20 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1440,20 +1000,20 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="13"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1465,20 +1025,20 @@
         <v>3</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1492,24 +1052,24 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="17"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="13"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1519,20 +1079,20 @@
         <v>2</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1546,22 +1106,22 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="13"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1571,20 +1131,20 @@
         <v>2</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1594,24 +1154,24 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="13"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1621,22 +1181,22 @@
       <c r="F12" s="5">
         <v>4</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>2</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1646,24 +1206,24 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
         <v>1</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="13"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1671,22 +1231,22 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>4</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="17"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1696,9 +1256,9 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12">
         <v>1</v>
       </c>
       <c r="J15" s="5">
@@ -1707,17 +1267,17 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="L15" s="14">
-        <v>1</v>
-      </c>
-      <c r="M15" s="15"/>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="13"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1725,22 +1285,22 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>4</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1750,26 +1310,26 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="5">
         <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15"/>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="17"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="13"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1777,20 +1337,20 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="17"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1800,26 +1360,26 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19" s="5">
         <v>1</v>
       </c>
-      <c r="L19" s="14">
-        <v>1</v>
-      </c>
-      <c r="M19" s="15"/>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="17"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="13"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -1827,20 +1387,20 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1850,13 +1410,13 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14">
-        <v>1</v>
-      </c>
-      <c r="I21" s="15">
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
         <v>1</v>
       </c>
       <c r="J21" s="5">
@@ -1865,17 +1425,17 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="14">
-        <v>1</v>
-      </c>
-      <c r="M21" s="15"/>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="17"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="13"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1883,22 +1443,22 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="14">
+      <c r="G22" s="11">
         <v>2</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="17"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1908,13 +1468,13 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15">
+      <c r="L23" s="11"/>
+      <c r="M23" s="12">
         <v>1</v>
       </c>
       <c r="N23" s="5">
@@ -1923,13 +1483,13 @@
       <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="17"/>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1937,20 +1497,20 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="17"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1960,13 +1520,13 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15">
+      <c r="L25" s="11"/>
+      <c r="M25" s="12">
         <v>1</v>
       </c>
       <c r="N25" s="5">
@@ -1975,13 +1535,13 @@
       <c r="O25" s="5">
         <v>1</v>
       </c>
-      <c r="P25" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="17"/>
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="13"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -1989,88 +1549,82 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="17"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="11"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="I27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="P27" s="16" t="s">
+      <c r="M27" s="14"/>
+      <c r="P27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="11"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="11"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="11"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="11"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="11"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -2087,29 +1641,35 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:P26 Q21">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2122,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:R28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2201,15 +1761,15 @@
         <f>IF(Deutsch!F2="","",Deutsch!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="11" t="str">
         <f>IF(Deutsch!G2="","",Deutsch!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="14" t="str">
+      <c r="H2" s="11" t="str">
         <f>IF(Deutsch!H2="","",Deutsch!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="15" t="str">
+      <c r="I2" s="12" t="str">
         <f>IF(Deutsch!I2="","",Deutsch!I2)</f>
         <v/>
       </c>
@@ -2221,11 +1781,11 @@
         <f>IF(Deutsch!K2="","",Deutsch!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="14" t="str">
+      <c r="L2" s="11" t="str">
         <f>IF(Deutsch!L2="","",Deutsch!L2)</f>
         <v/>
       </c>
-      <c r="M2" s="15" t="str">
+      <c r="M2" s="12" t="str">
         <f>IF(Deutsch!M2="","",Deutsch!M2)</f>
         <v/>
       </c>
@@ -2237,14 +1797,14 @@
         <f>IF(Deutsch!O2="","",Deutsch!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="14" t="str">
+      <c r="P2" s="11" t="str">
         <f>IF(Deutsch!P2="","",Deutsch!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2266,15 +1826,15 @@
         <f>IF(Deutsch!F3="","",Deutsch!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="14" t="str">
+      <c r="G3" s="11" t="str">
         <f>IF(Deutsch!G3="","",Deutsch!G3)</f>
         <v/>
       </c>
-      <c r="H3" s="14" t="str">
+      <c r="H3" s="11" t="str">
         <f>IF(Deutsch!H3="","",Deutsch!H3)</f>
         <v/>
       </c>
-      <c r="I3" s="15" t="str">
+      <c r="I3" s="12" t="str">
         <f>IF(Deutsch!I3="","",Deutsch!I3)</f>
         <v/>
       </c>
@@ -2286,11 +1846,11 @@
         <f>IF(Deutsch!K3="","",Deutsch!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="14" t="str">
+      <c r="L3" s="11" t="str">
         <f>IF(Deutsch!L3="","",Deutsch!L3)</f>
         <v/>
       </c>
-      <c r="M3" s="15" t="str">
+      <c r="M3" s="12" t="str">
         <f>IF(Deutsch!M3="","",Deutsch!M3)</f>
         <v/>
       </c>
@@ -2302,14 +1862,14 @@
         <f>IF(Deutsch!O3="","",Deutsch!O3)</f>
         <v/>
       </c>
-      <c r="P3" s="14" t="str">
+      <c r="P3" s="11" t="str">
         <f>IF(Deutsch!P3="","",Deutsch!P3)</f>
         <v/>
       </c>
-      <c r="Q3" s="17"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="13"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -2329,15 +1889,15 @@
         <f>IF(Deutsch!F4="","",Deutsch!F4)</f>
         <v/>
       </c>
-      <c r="G4" s="14" t="str">
+      <c r="G4" s="11" t="str">
         <f>IF(Deutsch!G4="","",Deutsch!G4)</f>
         <v/>
       </c>
-      <c r="H4" s="14" t="str">
+      <c r="H4" s="11" t="str">
         <f>IF(Deutsch!H4="","",Deutsch!H4)</f>
         <v/>
       </c>
-      <c r="I4" s="15" t="str">
+      <c r="I4" s="12" t="str">
         <f>IF(Deutsch!I4="","",Deutsch!I4)</f>
         <v/>
       </c>
@@ -2349,11 +1909,11 @@
         <f>IF(Deutsch!K4="","",Deutsch!K4)</f>
         <v/>
       </c>
-      <c r="L4" s="14" t="str">
+      <c r="L4" s="11" t="str">
         <f>IF(Deutsch!L4="","",Deutsch!L4)</f>
         <v/>
       </c>
-      <c r="M4" s="15" t="str">
+      <c r="M4" s="12" t="str">
         <f>IF(Deutsch!M4="","",Deutsch!M4)</f>
         <v/>
       </c>
@@ -2365,14 +1925,14 @@
         <f>IF(Deutsch!O4="","",Deutsch!O4)</f>
         <v/>
       </c>
-      <c r="P4" s="14" t="str">
+      <c r="P4" s="11" t="str">
         <f>IF(Deutsch!P4="","",Deutsch!P4)</f>
         <v/>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2394,15 +1954,15 @@
         <f>IF(Deutsch!F5="","",Deutsch!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="11" t="str">
         <f>IF(Deutsch!G5="","",Deutsch!G5)</f>
         <v/>
       </c>
-      <c r="H5" s="14" t="str">
+      <c r="H5" s="11" t="str">
         <f>IF(Deutsch!H5="","",Deutsch!H5)</f>
         <v/>
       </c>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="12" t="str">
         <f>IF(Deutsch!I5="","",Deutsch!I5)</f>
         <v/>
       </c>
@@ -2414,11 +1974,11 @@
         <f>IF(Deutsch!K5="","",Deutsch!K5)</f>
         <v/>
       </c>
-      <c r="L5" s="14" t="str">
+      <c r="L5" s="11" t="str">
         <f>IF(Deutsch!L5="","",Deutsch!L5)</f>
         <v/>
       </c>
-      <c r="M5" s="15" t="str">
+      <c r="M5" s="12" t="str">
         <f>IF(Deutsch!M5="","",Deutsch!M5)</f>
         <v/>
       </c>
@@ -2430,14 +1990,14 @@
         <f>IF(Deutsch!O5="","",Deutsch!O5)</f>
         <v/>
       </c>
-      <c r="P5" s="14" t="str">
+      <c r="P5" s="11" t="str">
         <f>IF(Deutsch!P5="","",Deutsch!P5)</f>
         <v/>
       </c>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="13"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2457,15 +2017,15 @@
         <f>IF(Deutsch!F6="","",Deutsch!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="11" t="str">
         <f>IF(Deutsch!G6="","",Deutsch!G6)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="11" t="str">
         <f>IF(Deutsch!H6="","",Deutsch!H6)</f>
         <v/>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="12" t="str">
         <f>IF(Deutsch!I6="","",Deutsch!I6)</f>
         <v/>
       </c>
@@ -2477,11 +2037,11 @@
         <f>IF(Deutsch!K6="","",Deutsch!K6)</f>
         <v/>
       </c>
-      <c r="L6" s="14" t="str">
+      <c r="L6" s="11" t="str">
         <f>IF(Deutsch!L6="","",Deutsch!L6)</f>
         <v/>
       </c>
-      <c r="M6" s="15" t="str">
+      <c r="M6" s="12" t="str">
         <f>IF(Deutsch!M6="","",Deutsch!M6)</f>
         <v/>
       </c>
@@ -2493,14 +2053,14 @@
         <f>IF(Deutsch!O6="","",Deutsch!O6)</f>
         <v/>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="11" t="str">
         <f>IF(Deutsch!P6="","",Deutsch!P6)</f>
         <v/>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2522,15 +2082,15 @@
         <f>IF(Deutsch!F7="","",Deutsch!F7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <f>IF(Deutsch!G7="","",Deutsch!G7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="14" t="str">
+      <c r="H7" s="11" t="str">
         <f>IF(Deutsch!H7="","",Deutsch!H7)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="12" t="str">
         <f>IF(Deutsch!I7="","",Deutsch!I7)</f>
         <v/>
       </c>
@@ -2542,11 +2102,11 @@
         <f>IF(Deutsch!K7="","",Deutsch!K7)</f>
         <v/>
       </c>
-      <c r="L7" s="14" t="str">
+      <c r="L7" s="11" t="str">
         <f>IF(Deutsch!L7="","",Deutsch!L7)</f>
         <v/>
       </c>
-      <c r="M7" s="15" t="str">
+      <c r="M7" s="12" t="str">
         <f>IF(Deutsch!M7="","",Deutsch!M7)</f>
         <v/>
       </c>
@@ -2558,14 +2118,14 @@
         <f>IF(Deutsch!O7="","",Deutsch!O7)</f>
         <v/>
       </c>
-      <c r="P7" s="14" t="str">
+      <c r="P7" s="11" t="str">
         <f>IF(Deutsch!P7="","",Deutsch!P7)</f>
         <v/>
       </c>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="13"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2585,15 +2145,15 @@
         <f>IF(Deutsch!F8="","",Deutsch!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="11" t="str">
         <f>IF(Deutsch!G8="","",Deutsch!G8)</f>
         <v/>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="11" t="str">
         <f>IF(Deutsch!H8="","",Deutsch!H8)</f>
         <v/>
       </c>
-      <c r="I8" s="15" t="str">
+      <c r="I8" s="12" t="str">
         <f>IF(Deutsch!I8="","",Deutsch!I8)</f>
         <v/>
       </c>
@@ -2605,11 +2165,11 @@
         <f>IF(Deutsch!K8="","",Deutsch!K8)</f>
         <v/>
       </c>
-      <c r="L8" s="14" t="str">
+      <c r="L8" s="11" t="str">
         <f>IF(Deutsch!L8="","",Deutsch!L8)</f>
         <v/>
       </c>
-      <c r="M8" s="15" t="str">
+      <c r="M8" s="12" t="str">
         <f>IF(Deutsch!M8="","",Deutsch!M8)</f>
         <v/>
       </c>
@@ -2621,14 +2181,14 @@
         <f>IF(Deutsch!O8="","",Deutsch!O8)</f>
         <v/>
       </c>
-      <c r="P8" s="14" t="str">
+      <c r="P8" s="11" t="str">
         <f>IF(Deutsch!P8="","",Deutsch!P8)</f>
         <v/>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2650,15 +2210,15 @@
         <f>IF(Deutsch!F9="","",Deutsch!F9)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <f>IF(Deutsch!G9="","",Deutsch!G9)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="14" t="str">
+      <c r="H9" s="11" t="str">
         <f>IF(Deutsch!H9="","",Deutsch!H9)</f>
         <v/>
       </c>
-      <c r="I9" s="15" t="str">
+      <c r="I9" s="12" t="str">
         <f>IF(Deutsch!I9="","",Deutsch!I9)</f>
         <v/>
       </c>
@@ -2670,11 +2230,11 @@
         <f>IF(Deutsch!K9="","",Deutsch!K9)</f>
         <v/>
       </c>
-      <c r="L9" s="14" t="str">
+      <c r="L9" s="11" t="str">
         <f>IF(Deutsch!L9="","",Deutsch!L9)</f>
         <v/>
       </c>
-      <c r="M9" s="15" t="str">
+      <c r="M9" s="12" t="str">
         <f>IF(Deutsch!M9="","",Deutsch!M9)</f>
         <v/>
       </c>
@@ -2686,14 +2246,14 @@
         <f>IF(Deutsch!O9="","",Deutsch!O9)</f>
         <v/>
       </c>
-      <c r="P9" s="14" t="str">
+      <c r="P9" s="11" t="str">
         <f>IF(Deutsch!P9="","",Deutsch!P9)</f>
         <v/>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="13"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2713,15 +2273,15 @@
         <f>IF(Deutsch!F10="","",Deutsch!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="11" t="str">
         <f>IF(Deutsch!G10="","",Deutsch!G10)</f>
         <v/>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="11" t="str">
         <f>IF(Deutsch!H10="","",Deutsch!H10)</f>
         <v/>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="I10" s="12" t="str">
         <f>IF(Deutsch!I10="","",Deutsch!I10)</f>
         <v/>
       </c>
@@ -2733,11 +2293,11 @@
         <f>IF(Deutsch!K10="","",Deutsch!K10)</f>
         <v/>
       </c>
-      <c r="L10" s="14" t="str">
+      <c r="L10" s="11" t="str">
         <f>IF(Deutsch!L10="","",Deutsch!L10)</f>
         <v/>
       </c>
-      <c r="M10" s="15" t="str">
+      <c r="M10" s="12" t="str">
         <f>IF(Deutsch!M10="","",Deutsch!M10)</f>
         <v/>
       </c>
@@ -2749,14 +2309,14 @@
         <f>IF(Deutsch!O10="","",Deutsch!O10)</f>
         <v/>
       </c>
-      <c r="P10" s="14" t="str">
+      <c r="P10" s="11" t="str">
         <f>IF(Deutsch!P10="","",Deutsch!P10)</f>
         <v/>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2778,15 +2338,15 @@
         <f>IF(Deutsch!F11="","",Deutsch!F11)</f>
         <v/>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <f>IF(Deutsch!G11="","",Deutsch!G11)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="11">
         <f>IF(Deutsch!H11="","",Deutsch!H11)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="12" t="str">
         <f>IF(Deutsch!I11="","",Deutsch!I11)</f>
         <v/>
       </c>
@@ -2798,11 +2358,11 @@
         <f>IF(Deutsch!K11="","",Deutsch!K11)</f>
         <v/>
       </c>
-      <c r="L11" s="14" t="str">
+      <c r="L11" s="11" t="str">
         <f>IF(Deutsch!L11="","",Deutsch!L11)</f>
         <v/>
       </c>
-      <c r="M11" s="15" t="str">
+      <c r="M11" s="12" t="str">
         <f>IF(Deutsch!M11="","",Deutsch!M11)</f>
         <v/>
       </c>
@@ -2814,14 +2374,14 @@
         <f>IF(Deutsch!O11="","",Deutsch!O11)</f>
         <v/>
       </c>
-      <c r="P11" s="14" t="str">
+      <c r="P11" s="11" t="str">
         <f>IF(Deutsch!P11="","",Deutsch!P11)</f>
         <v/>
       </c>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="13"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2841,15 +2401,14 @@
         <f>IF(Deutsch!F12="","",Deutsch!F12)</f>
         <v>4</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <f>IF(Deutsch!G12="","",Deutsch!G12)</f>
         <v>2</v>
       </c>
-      <c r="H12" s="14" t="str">
-        <f>IF(Deutsch!H12="","",Deutsch!H12)</f>
-        <v/>
-      </c>
-      <c r="I12" s="15" t="str">
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12" t="str">
         <f>IF(Deutsch!I12="","",Deutsch!I12)</f>
         <v/>
       </c>
@@ -2861,11 +2420,11 @@
         <f>IF(Deutsch!K12="","",Deutsch!K12)</f>
         <v/>
       </c>
-      <c r="L12" s="14" t="str">
+      <c r="L12" s="11" t="str">
         <f>IF(Deutsch!L12="","",Deutsch!L12)</f>
         <v/>
       </c>
-      <c r="M12" s="15" t="str">
+      <c r="M12" s="12" t="str">
         <f>IF(Deutsch!M12="","",Deutsch!M12)</f>
         <v/>
       </c>
@@ -2877,14 +2436,14 @@
         <f>IF(Deutsch!O12="","",Deutsch!O12)</f>
         <v/>
       </c>
-      <c r="P12" s="14" t="str">
+      <c r="P12" s="11" t="str">
         <f>IF(Deutsch!P12="","",Deutsch!P12)</f>
         <v/>
       </c>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2906,15 +2465,15 @@
         <f>IF(Deutsch!F13="","",Deutsch!F13)</f>
         <v/>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="11" t="str">
         <f>IF(Deutsch!G13="","",Deutsch!G13)</f>
         <v/>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="11">
         <f>IF(Deutsch!H13="","",Deutsch!H13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <f>IF(Deutsch!I13="","",Deutsch!I13)</f>
         <v>1</v>
       </c>
@@ -2926,11 +2485,11 @@
         <f>IF(Deutsch!K13="","",Deutsch!K13)</f>
         <v/>
       </c>
-      <c r="L13" s="14" t="str">
+      <c r="L13" s="11" t="str">
         <f>IF(Deutsch!L13="","",Deutsch!L13)</f>
         <v/>
       </c>
-      <c r="M13" s="15" t="str">
+      <c r="M13" s="12" t="str">
         <f>IF(Deutsch!M13="","",Deutsch!M13)</f>
         <v/>
       </c>
@@ -2942,14 +2501,14 @@
         <f>IF(Deutsch!O13="","",Deutsch!O13)</f>
         <v/>
       </c>
-      <c r="P13" s="14" t="str">
+      <c r="P13" s="11" t="str">
         <f>IF(Deutsch!P13="","",Deutsch!P13)</f>
         <v/>
       </c>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="13"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2969,15 +2528,14 @@
         <f>IF(Deutsch!F14="","",Deutsch!F14)</f>
         <v/>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <f>IF(Deutsch!G14="","",Deutsch!G14)</f>
         <v>4</v>
       </c>
-      <c r="H14" s="14" t="str">
-        <f>IF(Deutsch!H14="","",Deutsch!H14)</f>
-        <v/>
-      </c>
-      <c r="I14" s="15" t="str">
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12" t="str">
         <f>IF(Deutsch!I14="","",Deutsch!I14)</f>
         <v/>
       </c>
@@ -2989,11 +2547,11 @@
         <f>IF(Deutsch!K14="","",Deutsch!K14)</f>
         <v/>
       </c>
-      <c r="L14" s="14" t="str">
+      <c r="L14" s="11" t="str">
         <f>IF(Deutsch!L14="","",Deutsch!L14)</f>
         <v/>
       </c>
-      <c r="M14" s="15" t="str">
+      <c r="M14" s="12" t="str">
         <f>IF(Deutsch!M14="","",Deutsch!M14)</f>
         <v/>
       </c>
@@ -3005,14 +2563,14 @@
         <f>IF(Deutsch!O14="","",Deutsch!O14)</f>
         <v/>
       </c>
-      <c r="P14" s="14" t="str">
+      <c r="P14" s="11" t="str">
         <f>IF(Deutsch!P14="","",Deutsch!P14)</f>
         <v/>
       </c>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3034,15 +2592,15 @@
         <f>IF(Deutsch!F15="","",Deutsch!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="11" t="str">
         <f>IF(Deutsch!G15="","",Deutsch!G15)</f>
         <v/>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="11" t="str">
         <f>IF(Deutsch!H15="","",Deutsch!H15)</f>
         <v/>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <f>IF(Deutsch!I15="","",Deutsch!I15)</f>
         <v>1</v>
       </c>
@@ -3054,11 +2612,11 @@
         <f>IF(Deutsch!K15="","",Deutsch!K15)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="11">
         <f>IF(Deutsch!L15="","",Deutsch!L15)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="15" t="str">
+      <c r="M15" s="12" t="str">
         <f>IF(Deutsch!M15="","",Deutsch!M15)</f>
         <v/>
       </c>
@@ -3070,14 +2628,14 @@
         <f>IF(Deutsch!O15="","",Deutsch!O15)</f>
         <v/>
       </c>
-      <c r="P15" s="14" t="str">
+      <c r="P15" s="11" t="str">
         <f>IF(Deutsch!P15="","",Deutsch!P15)</f>
         <v/>
       </c>
-      <c r="Q15" s="17"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="13"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -3097,31 +2655,26 @@
         <f>IF(Deutsch!F16="","",Deutsch!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <f>IF(Deutsch!G16="","",Deutsch!G16)</f>
         <v>4</v>
       </c>
-      <c r="H16" s="14" t="str">
-        <f>IF(Deutsch!H16="","",Deutsch!H16)</f>
-        <v/>
-      </c>
-      <c r="I16" s="15" t="str">
-        <f>IF(Deutsch!I16="","",Deutsch!I16)</f>
-        <v/>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f>IF(Deutsch!J16="","",Deutsch!J16)</f>
-        <v/>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f>IF(Deutsch!K16="","",Deutsch!K16)</f>
-        <v/>
-      </c>
-      <c r="L16" s="14" t="str">
-        <f>IF(Deutsch!L16="","",Deutsch!L16)</f>
-        <v/>
-      </c>
-      <c r="M16" s="15" t="str">
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2</v>
+      </c>
+      <c r="M16" s="12" t="str">
         <f>IF(Deutsch!M16="","",Deutsch!M16)</f>
         <v/>
       </c>
@@ -3133,14 +2686,14 @@
         <f>IF(Deutsch!O16="","",Deutsch!O16)</f>
         <v/>
       </c>
-      <c r="P16" s="14" t="str">
+      <c r="P16" s="11" t="str">
         <f>IF(Deutsch!P16="","",Deutsch!P16)</f>
         <v/>
       </c>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3162,15 +2715,15 @@
         <f>IF(Deutsch!F17="","",Deutsch!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="11" t="str">
         <f>IF(Deutsch!G17="","",Deutsch!G17)</f>
         <v/>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="11" t="str">
         <f>IF(Deutsch!H17="","",Deutsch!H17)</f>
         <v/>
       </c>
-      <c r="I17" s="15" t="str">
+      <c r="I17" s="12" t="str">
         <f>IF(Deutsch!I17="","",Deutsch!I17)</f>
         <v/>
       </c>
@@ -3182,11 +2735,11 @@
         <f>IF(Deutsch!K17="","",Deutsch!K17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="11">
         <f>IF(Deutsch!L17="","",Deutsch!L17)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="15" t="str">
+      <c r="M17" s="12" t="str">
         <f>IF(Deutsch!M17="","",Deutsch!M17)</f>
         <v/>
       </c>
@@ -3198,14 +2751,14 @@
         <f>IF(Deutsch!O17="","",Deutsch!O17)</f>
         <v/>
       </c>
-      <c r="P17" s="14" t="str">
+      <c r="P17" s="11" t="str">
         <f>IF(Deutsch!P17="","",Deutsch!P17)</f>
         <v/>
       </c>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="13"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -3225,33 +2778,29 @@
         <f>IF(Deutsch!F18="","",Deutsch!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="11" t="str">
         <f>IF(Deutsch!G18="","",Deutsch!G18)</f>
         <v/>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="11" t="str">
         <f>IF(Deutsch!H18="","",Deutsch!H18)</f>
         <v/>
       </c>
-      <c r="I18" s="15" t="str">
+      <c r="I18" s="12" t="str">
         <f>IF(Deutsch!I18="","",Deutsch!I18)</f>
         <v/>
       </c>
-      <c r="J18" s="5" t="str">
-        <f>IF(Deutsch!J18="","",Deutsch!J18)</f>
-        <v/>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f>IF(Deutsch!K18="","",Deutsch!K18)</f>
-        <v/>
-      </c>
-      <c r="L18" s="14" t="str">
-        <f>IF(Deutsch!L18="","",Deutsch!L18)</f>
-        <v/>
-      </c>
-      <c r="M18" s="15" t="str">
-        <f>IF(Deutsch!M18="","",Deutsch!M18)</f>
-        <v/>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2</v>
+      </c>
+      <c r="M18" s="12">
+        <v>3</v>
       </c>
       <c r="N18" s="5" t="str">
         <f>IF(Deutsch!N18="","",Deutsch!N18)</f>
@@ -3261,14 +2810,14 @@
         <f>IF(Deutsch!O18="","",Deutsch!O18)</f>
         <v/>
       </c>
-      <c r="P18" s="14" t="str">
+      <c r="P18" s="11" t="str">
         <f>IF(Deutsch!P18="","",Deutsch!P18)</f>
         <v/>
       </c>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3290,15 +2839,15 @@
         <f>IF(Deutsch!F19="","",Deutsch!F19)</f>
         <v/>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="11" t="str">
         <f>IF(Deutsch!G19="","",Deutsch!G19)</f>
         <v/>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="11" t="str">
         <f>IF(Deutsch!H19="","",Deutsch!H19)</f>
         <v/>
       </c>
-      <c r="I19" s="15" t="str">
+      <c r="I19" s="12" t="str">
         <f>IF(Deutsch!I19="","",Deutsch!I19)</f>
         <v/>
       </c>
@@ -3310,11 +2859,11 @@
         <f>IF(Deutsch!K19="","",Deutsch!K19)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="11">
         <f>IF(Deutsch!L19="","",Deutsch!L19)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="15" t="str">
+      <c r="M19" s="12" t="str">
         <f>IF(Deutsch!M19="","",Deutsch!M19)</f>
         <v/>
       </c>
@@ -3326,14 +2875,14 @@
         <f>IF(Deutsch!O19="","",Deutsch!O19)</f>
         <v/>
       </c>
-      <c r="P19" s="14" t="str">
+      <c r="P19" s="11" t="str">
         <f>IF(Deutsch!P19="","",Deutsch!P19)</f>
         <v/>
       </c>
-      <c r="Q19" s="17"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="13"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -3353,15 +2902,15 @@
         <f>IF(Deutsch!F20="","",Deutsch!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="11" t="str">
         <f>IF(Deutsch!G20="","",Deutsch!G20)</f>
         <v/>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="11" t="str">
         <f>IF(Deutsch!H20="","",Deutsch!H20)</f>
         <v/>
       </c>
-      <c r="I20" s="15" t="str">
+      <c r="I20" s="12" t="str">
         <f>IF(Deutsch!I20="","",Deutsch!I20)</f>
         <v/>
       </c>
@@ -3373,30 +2922,27 @@
         <f>IF(Deutsch!K20="","",Deutsch!K20)</f>
         <v/>
       </c>
-      <c r="L20" s="14" t="str">
-        <f>IF(Deutsch!L20="","",Deutsch!L20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="15" t="str">
-        <f>IF(Deutsch!M20="","",Deutsch!M20)</f>
-        <v/>
-      </c>
-      <c r="N20" s="5" t="str">
-        <f>IF(Deutsch!N20="","",Deutsch!N20)</f>
-        <v/>
+      <c r="L20" s="11">
+        <v>2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3</v>
       </c>
       <c r="O20" s="5" t="str">
         <f>IF(Deutsch!O20="","",Deutsch!O20)</f>
         <v/>
       </c>
-      <c r="P20" s="14" t="str">
+      <c r="P20" s="11" t="str">
         <f>IF(Deutsch!P20="","",Deutsch!P20)</f>
         <v/>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3418,15 +2964,15 @@
         <f>IF(Deutsch!F21="","",Deutsch!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="11">
         <f>IF(Deutsch!G21="","",Deutsch!G21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="11">
         <f>IF(Deutsch!H21="","",Deutsch!H21)</f>
         <v>1</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <f>IF(Deutsch!I21="","",Deutsch!I21)</f>
         <v>1</v>
       </c>
@@ -3438,11 +2984,11 @@
         <f>IF(Deutsch!K21="","",Deutsch!K21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="11">
         <f>IF(Deutsch!L21="","",Deutsch!L21)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="15" t="str">
+      <c r="M21" s="12" t="str">
         <f>IF(Deutsch!M21="","",Deutsch!M21)</f>
         <v/>
       </c>
@@ -3454,14 +3000,14 @@
         <f>IF(Deutsch!O21="","",Deutsch!O21)</f>
         <v/>
       </c>
-      <c r="P21" s="14" t="str">
+      <c r="P21" s="11" t="str">
         <f>IF(Deutsch!P21="","",Deutsch!P21)</f>
         <v/>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="13"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3481,31 +3027,26 @@
         <f>IF(Deutsch!F22="","",Deutsch!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="11">
         <f>IF(Deutsch!G22="","",Deutsch!G22)</f>
         <v>2</v>
       </c>
-      <c r="H22" s="14" t="str">
-        <f>IF(Deutsch!H22="","",Deutsch!H22)</f>
-        <v/>
-      </c>
-      <c r="I22" s="15" t="str">
-        <f>IF(Deutsch!I22="","",Deutsch!I22)</f>
-        <v/>
-      </c>
-      <c r="J22" s="5" t="str">
-        <f>IF(Deutsch!J22="","",Deutsch!J22)</f>
-        <v/>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f>IF(Deutsch!K22="","",Deutsch!K22)</f>
-        <v/>
-      </c>
-      <c r="L22" s="14" t="str">
-        <f>IF(Deutsch!L22="","",Deutsch!L22)</f>
-        <v/>
-      </c>
-      <c r="M22" s="15" t="str">
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2</v>
+      </c>
+      <c r="M22" s="12" t="str">
         <f>IF(Deutsch!M22="","",Deutsch!M22)</f>
         <v/>
       </c>
@@ -3517,14 +3058,14 @@
         <f>IF(Deutsch!O22="","",Deutsch!O22)</f>
         <v/>
       </c>
-      <c r="P22" s="14" t="str">
+      <c r="P22" s="11" t="str">
         <f>IF(Deutsch!P22="","",Deutsch!P22)</f>
         <v/>
       </c>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3546,15 +3087,15 @@
         <f>IF(Deutsch!F23="","",Deutsch!F23)</f>
         <v/>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="11" t="str">
         <f>IF(Deutsch!G23="","",Deutsch!G23)</f>
         <v/>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="11" t="str">
         <f>IF(Deutsch!H23="","",Deutsch!H23)</f>
         <v/>
       </c>
-      <c r="I23" s="15" t="str">
+      <c r="I23" s="12" t="str">
         <f>IF(Deutsch!I23="","",Deutsch!I23)</f>
         <v/>
       </c>
@@ -3566,11 +3107,11 @@
         <f>IF(Deutsch!K23="","",Deutsch!K23)</f>
         <v/>
       </c>
-      <c r="L23" s="14" t="str">
+      <c r="L23" s="11" t="str">
         <f>IF(Deutsch!L23="","",Deutsch!L23)</f>
         <v/>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="12">
         <f>IF(Deutsch!M23="","",Deutsch!M23)</f>
         <v>1</v>
       </c>
@@ -3582,14 +3123,14 @@
         <f>IF(Deutsch!O23="","",Deutsch!O23)</f>
         <v>1</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="11">
         <f>IF(Deutsch!P23="","",Deutsch!P23)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="13"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3609,33 +3150,28 @@
         <f>IF(Deutsch!F24="","",Deutsch!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="11" t="str">
         <f>IF(Deutsch!G24="","",Deutsch!G24)</f>
         <v/>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="11" t="str">
         <f>IF(Deutsch!H24="","",Deutsch!H24)</f>
         <v/>
       </c>
-      <c r="I24" s="15" t="str">
-        <f>IF(Deutsch!I24="","",Deutsch!I24)</f>
-        <v/>
-      </c>
-      <c r="J24" s="5" t="str">
-        <f>IF(Deutsch!J24="","",Deutsch!J24)</f>
-        <v/>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f>IF(Deutsch!K24="","",Deutsch!K24)</f>
-        <v/>
-      </c>
-      <c r="L24" s="14" t="str">
-        <f>IF(Deutsch!L24="","",Deutsch!L24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="15" t="str">
-        <f>IF(Deutsch!M24="","",Deutsch!M24)</f>
-        <v/>
+      <c r="I24" s="12">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4</v>
+      </c>
+      <c r="L24" s="11">
+        <v>4</v>
+      </c>
+      <c r="M24" s="12">
+        <v>2</v>
       </c>
       <c r="N24" s="5" t="str">
         <f>IF(Deutsch!N24="","",Deutsch!N24)</f>
@@ -3645,14 +3181,14 @@
         <f>IF(Deutsch!O24="","",Deutsch!O24)</f>
         <v/>
       </c>
-      <c r="P24" s="14" t="str">
+      <c r="P24" s="11" t="str">
         <f>IF(Deutsch!P24="","",Deutsch!P24)</f>
         <v/>
       </c>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3674,15 +3210,15 @@
         <f>IF(Deutsch!F25="","",Deutsch!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="11" t="str">
         <f>IF(Deutsch!G25="","",Deutsch!G25)</f>
         <v/>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="11" t="str">
         <f>IF(Deutsch!H25="","",Deutsch!H25)</f>
         <v/>
       </c>
-      <c r="I25" s="15" t="str">
+      <c r="I25" s="12" t="str">
         <f>IF(Deutsch!I25="","",Deutsch!I25)</f>
         <v/>
       </c>
@@ -3694,11 +3230,11 @@
         <f>IF(Deutsch!K25="","",Deutsch!K25)</f>
         <v/>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="L25" s="11" t="str">
         <f>IF(Deutsch!L25="","",Deutsch!L25)</f>
         <v/>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="12">
         <f>IF(Deutsch!M25="","",Deutsch!M25)</f>
         <v>1</v>
       </c>
@@ -3710,14 +3246,14 @@
         <f>IF(Deutsch!O25="","",Deutsch!O25)</f>
         <v>1</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="11">
         <f>IF(Deutsch!P25="","",Deutsch!P25)</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="17"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="13"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3737,15 +3273,15 @@
         <f>IF(Deutsch!F26="","",Deutsch!F26)</f>
         <v/>
       </c>
-      <c r="G26" s="14" t="str">
+      <c r="G26" s="11" t="str">
         <f>IF(Deutsch!G26="","",Deutsch!G26)</f>
         <v/>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="11" t="str">
         <f>IF(Deutsch!H26="","",Deutsch!H26)</f>
         <v/>
       </c>
-      <c r="I26" s="15" t="str">
+      <c r="I26" s="12" t="str">
         <f>IF(Deutsch!I26="","",Deutsch!I26)</f>
         <v/>
       </c>
@@ -3757,11 +3293,11 @@
         <f>IF(Deutsch!K26="","",Deutsch!K26)</f>
         <v/>
       </c>
-      <c r="L26" s="14" t="str">
+      <c r="L26" s="11" t="str">
         <f>IF(Deutsch!L26="","",Deutsch!L26)</f>
         <v/>
       </c>
-      <c r="M26" s="15" t="str">
+      <c r="M26" s="12" t="str">
         <f>IF(Deutsch!M26="","",Deutsch!M26)</f>
         <v/>
       </c>
@@ -3773,89 +3309,76 @@
         <f>IF(Deutsch!O26="","",Deutsch!O26)</f>
         <v/>
       </c>
-      <c r="P26" s="14" t="str">
+      <c r="P26" s="11" t="str">
         <f>IF(Deutsch!P26="","",Deutsch!P26)</f>
         <v/>
       </c>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="11"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="I27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="P27" s="16" t="s">
+      <c r="M27" s="14"/>
+      <c r="P27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="11"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="11"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="11"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="11"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="11"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -3865,65 +3388,78 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26 Q21">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="49">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Einführung und Besichtigung des  Fahrsimulators</t>
-  </si>
-  <si>
-    <t>Einzelne Elemente aus google Street View in unsere 3-D Welt integrieren</t>
   </si>
   <si>
     <t>PA Dokumentation schreiben</t>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>Milestone 3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Einzelne Elemente aus google 3d Warehouse in unsere 3-D Welt integrieren</t>
   </si>
 </sst>
 </file>
@@ -300,6 +303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -309,20 +321,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -495,6 +498,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
@@ -530,6 +543,136 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF66FF66"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -860,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="G27:R28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -874,7 +1017,7 @@
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -940,112 +1083,218 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="11"/>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="11"/>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="11"/>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
@@ -1055,51 +1304,97 @@
       <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
@@ -1109,74 +1404,146 @@
       <c r="G9" s="11">
         <v>1</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="11"/>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="11"/>
+      <c r="I11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>4</v>
@@ -1184,80 +1551,160 @@
       <c r="G12" s="11">
         <v>2</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="11"/>
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="11">
         <v>1</v>
       </c>
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="11"/>
+      <c r="J13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G14" s="11">
         <v>4</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="11"/>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="I15" s="12">
         <v>1</v>
       </c>
@@ -1270,49 +1717,97 @@
       <c r="L15" s="11">
         <v>1</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="11"/>
+      <c r="M15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G16" s="11">
         <v>4</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="11"/>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="J17" s="5">
         <v>1</v>
       </c>
@@ -1322,47 +1817,97 @@
       <c r="L17" s="11">
         <v>1</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="11"/>
+      <c r="M17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="11"/>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2</v>
+      </c>
+      <c r="M18" s="12">
+        <v>3</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
-        <v>25</v>
+      <c r="A19" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="J19" s="5">
         <v>1</v>
       </c>
@@ -1372,44 +1917,88 @@
       <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="11"/>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="11">
+        <v>2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19" t="s">
-        <v>26</v>
+      <c r="A21" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="11">
         <v>1</v>
       </c>
@@ -1428,52 +2017,106 @@
       <c r="L21" s="11">
         <v>1</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="11"/>
+      <c r="M21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G22" s="11">
         <v>2</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="11"/>
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
-        <v>28</v>
+      <c r="A23" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="11"/>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="M23" s="12">
         <v>1</v>
       </c>
@@ -1489,43 +2132,89 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="12">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5">
+        <v>4</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4</v>
+      </c>
+      <c r="L24" s="11">
+        <v>4</v>
+      </c>
+      <c r="M24" s="12">
+        <v>2</v>
+      </c>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="11"/>
+      <c r="O24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19" t="s">
-        <v>27</v>
+      <c r="A25" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="11"/>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="M25" s="12">
         <v>1</v>
       </c>
@@ -1541,90 +2230,122 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
+      <c r="C26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="11"/>
+      <c r="O26" s="5">
+        <v>2</v>
+      </c>
+      <c r="P26" s="11">
+        <v>2</v>
+      </c>
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="L27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="P27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="L27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="P27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="G28" s="16" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="17"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="17"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="17"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -1641,35 +2362,54 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:P26 Q21">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+  <conditionalFormatting sqref="C3:P26 Q21">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:P26">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P2">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:P2">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1682,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1696,7 +2436,7 @@
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -1740,72 +2480,30 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>IF(Deutsch!C2="","",Deutsch!C2)</f>
-        <v/>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>IF(Deutsch!D2="","",Deutsch!D2)</f>
-        <v/>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>IF(Deutsch!E2="","",Deutsch!E2)</f>
-        <v/>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>IF(Deutsch!F2="","",Deutsch!F2)</f>
-        <v/>
-      </c>
-      <c r="G2" s="11" t="str">
-        <f>IF(Deutsch!G2="","",Deutsch!G2)</f>
-        <v/>
-      </c>
-      <c r="H2" s="11" t="str">
-        <f>IF(Deutsch!H2="","",Deutsch!H2)</f>
-        <v/>
-      </c>
-      <c r="I2" s="12" t="str">
-        <f>IF(Deutsch!I2="","",Deutsch!I2)</f>
-        <v/>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f>IF(Deutsch!J2="","",Deutsch!J2)</f>
-        <v/>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>IF(Deutsch!K2="","",Deutsch!K2)</f>
-        <v/>
-      </c>
-      <c r="L2" s="11" t="str">
-        <f>IF(Deutsch!L2="","",Deutsch!L2)</f>
-        <v/>
-      </c>
-      <c r="M2" s="12" t="str">
-        <f>IF(Deutsch!M2="","",Deutsch!M2)</f>
-        <v/>
-      </c>
-      <c r="N2" s="5" t="str">
-        <f>IF(Deutsch!N2="","",Deutsch!N2)</f>
-        <v/>
-      </c>
-      <c r="O2" s="5" t="str">
-        <f>IF(Deutsch!O2="","",Deutsch!O2)</f>
-        <v/>
-      </c>
-      <c r="P2" s="11" t="str">
-        <f>IF(Deutsch!P2="","",Deutsch!P2)</f>
-        <v/>
-      </c>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -1869,7 +2567,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1932,8 +2630,8 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19" t="s">
-        <v>33</v>
+      <c r="A5" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -1997,7 +2695,7 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2060,8 +2758,8 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
-        <v>34</v>
+      <c r="A7" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
@@ -2125,7 +2823,7 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2188,8 +2886,8 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
-        <v>35</v>
+      <c r="A9" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -2253,7 +2951,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2269,9 +2967,9 @@
         <f>IF(Deutsch!E10="","",Deutsch!E10)</f>
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="5">
         <f>IF(Deutsch!F10="","",Deutsch!F10)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(Deutsch!G10="","",Deutsch!G10)</f>
@@ -2316,8 +3014,8 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>36</v>
+      <c r="A11" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -2381,7 +3079,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2406,6 +3104,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="11">
+        <f>IF(Deutsch!H12="","",Deutsch!H12)</f>
         <v>2</v>
       </c>
       <c r="I12" s="12" t="str">
@@ -2443,8 +3142,8 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>37</v>
+      <c r="A13" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
@@ -2508,7 +3207,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2533,6 +3232,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11">
+        <f>IF(Deutsch!H14="","",Deutsch!H14)</f>
         <v>2</v>
       </c>
       <c r="I14" s="12" t="str">
@@ -2570,8 +3270,8 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>38</v>
+      <c r="A15" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
@@ -2635,7 +3335,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2660,18 +3360,23 @@
         <v>4</v>
       </c>
       <c r="H16" s="11">
+        <f>IF(Deutsch!H16="","",Deutsch!H16)</f>
         <v>4</v>
       </c>
       <c r="I16" s="12">
+        <f>IF(Deutsch!I16="","",Deutsch!I16)</f>
         <v>2</v>
       </c>
       <c r="J16" s="5">
+        <f>IF(Deutsch!J16="","",Deutsch!J16)</f>
         <v>2</v>
       </c>
       <c r="K16" s="5">
+        <f>IF(Deutsch!K16="","",Deutsch!K16)</f>
         <v>2</v>
       </c>
       <c r="L16" s="11">
+        <f>IF(Deutsch!L16="","",Deutsch!L16)</f>
         <v>2</v>
       </c>
       <c r="M16" s="12" t="str">
@@ -2693,8 +3398,8 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
-        <v>39</v>
+      <c r="A17" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -2758,7 +3463,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2791,15 +3496,19 @@
         <v/>
       </c>
       <c r="J18" s="5">
+        <f>IF(Deutsch!J18="","",Deutsch!J18)</f>
         <v>2</v>
       </c>
       <c r="K18" s="5">
+        <f>IF(Deutsch!K18="","",Deutsch!K18)</f>
         <v>2</v>
       </c>
       <c r="L18" s="11">
+        <f>IF(Deutsch!L18="","",Deutsch!L18)</f>
         <v>2</v>
       </c>
       <c r="M18" s="12">
+        <f>IF(Deutsch!M18="","",Deutsch!M18)</f>
         <v>3</v>
       </c>
       <c r="N18" s="5" t="str">
@@ -2817,8 +3526,8 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
-        <v>40</v>
+      <c r="A19" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -2882,7 +3591,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2923,12 +3632,15 @@
         <v/>
       </c>
       <c r="L20" s="11">
+        <f>IF(Deutsch!L20="","",Deutsch!L20)</f>
         <v>2</v>
       </c>
       <c r="M20" s="12">
+        <f>IF(Deutsch!M20="","",Deutsch!M20)</f>
         <v>3</v>
       </c>
       <c r="N20" s="5">
+        <f>IF(Deutsch!N20="","",Deutsch!N20)</f>
         <v>3</v>
       </c>
       <c r="O20" s="5" t="str">
@@ -2942,8 +3654,8 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19" t="s">
-        <v>41</v>
+      <c r="A21" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -3007,7 +3719,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3032,27 +3744,32 @@
         <v>2</v>
       </c>
       <c r="H22" s="11">
+        <f>IF(Deutsch!H22="","",Deutsch!H22)</f>
         <v>2</v>
       </c>
       <c r="I22" s="12">
+        <f>IF(Deutsch!I22="","",Deutsch!I22)</f>
         <v>2</v>
       </c>
       <c r="J22" s="5">
+        <f>IF(Deutsch!J22="","",Deutsch!J22)</f>
         <v>2</v>
       </c>
       <c r="K22" s="5">
+        <f>IF(Deutsch!K22="","",Deutsch!K22)</f>
         <v>2</v>
       </c>
       <c r="L22" s="11">
-        <v>2</v>
-      </c>
-      <c r="M22" s="12" t="str">
+        <f>IF(Deutsch!L22="","",Deutsch!L22)</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="12">
         <f>IF(Deutsch!M22="","",Deutsch!M22)</f>
-        <v/>
-      </c>
-      <c r="N22" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="N22" s="5">
         <f>IF(Deutsch!N22="","",Deutsch!N22)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O22" s="5" t="str">
         <f>IF(Deutsch!O22="","",Deutsch!O22)</f>
@@ -3065,8 +3782,8 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
-        <v>42</v>
+      <c r="A23" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -3130,7 +3847,7 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3159,18 +3876,23 @@
         <v/>
       </c>
       <c r="I24" s="12">
+        <f>IF(Deutsch!I24="","",Deutsch!I24)</f>
         <v>4</v>
       </c>
       <c r="J24" s="5">
+        <f>IF(Deutsch!J24="","",Deutsch!J24)</f>
         <v>4</v>
       </c>
       <c r="K24" s="5">
+        <f>IF(Deutsch!K24="","",Deutsch!K24)</f>
         <v>4</v>
       </c>
       <c r="L24" s="11">
+        <f>IF(Deutsch!L24="","",Deutsch!L24)</f>
         <v>4</v>
       </c>
       <c r="M24" s="12">
+        <f>IF(Deutsch!M24="","",Deutsch!M24)</f>
         <v>2</v>
       </c>
       <c r="N24" s="5" t="str">
@@ -3188,8 +3910,8 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19" t="s">
-        <v>43</v>
+      <c r="A25" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -3253,7 +3975,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3305,80 +4027,93 @@
         <f>IF(Deutsch!N26="","",Deutsch!N26)</f>
         <v/>
       </c>
-      <c r="O26" s="5" t="str">
+      <c r="O26" s="5">
         <f>IF(Deutsch!O26="","",Deutsch!O26)</f>
-        <v/>
-      </c>
-      <c r="P26" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="P26" s="11">
         <f>IF(Deutsch!P26="","",Deutsch!P26)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="L27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="P27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="L27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="P27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="17"/>
-      <c r="B28" s="2"/>
-      <c r="G28" s="16" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="17"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="17"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="17"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -3388,39 +4123,26 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Deutsch" sheetId="1" r:id="rId1"/>
@@ -69,19 +69,10 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>Lab View installieren</t>
-  </si>
-  <si>
     <t>Film für ersten Test aufnehmen</t>
   </si>
   <si>
-    <t>Lab View Schnittstelle initialisieren</t>
-  </si>
-  <si>
     <t>3-D Framework aufsetzen und Beispiele laufen lassen</t>
-  </si>
-  <si>
-    <t>Integration 3-D Welt an Lab View anbinden</t>
   </si>
   <si>
     <t>Eigene kleine 3-D Welt kreieren (ev. mit Tunnel)</t>
@@ -165,6 +156,15 @@
   </si>
   <si>
     <t>Einzelne Elemente aus google 3d Warehouse in unsere 3-D Welt integrieren</t>
+  </si>
+  <si>
+    <t>LabVIEW installieren</t>
+  </si>
+  <si>
+    <t>LabVIEW Schnittstelle initialisieren</t>
+  </si>
+  <si>
+    <t>Anbindung der 3-D Welt an LabVIEW</t>
   </si>
 </sst>
 </file>
@@ -303,6 +303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -312,20 +321,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -498,16 +498,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF66FF66"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
@@ -608,71 +598,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF66FF66"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1003,13 +933,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="78" width="3.140625" customWidth="1"/>
   </cols>
@@ -1017,7 +947,7 @@
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -1083,163 +1013,163 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
+      <c r="A3" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
+      <c r="A5" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1248,52 +1178,52 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
-        <v>18</v>
+      <c r="A7" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1305,95 +1235,95 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1405,44 +1335,44 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1451,55 +1381,55 @@
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
+      <c r="A11" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -1508,41 +1438,41 @@
         <v>1</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -1555,52 +1485,52 @@
         <v>2</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
+      <c r="A13" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11">
         <v>1</v>
@@ -1609,44 +1539,44 @@
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14" s="11">
         <v>4</v>
@@ -1655,55 +1585,55 @@
         <v>2</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="15" t="s">
-        <v>22</v>
+      <c r="A15" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="12">
         <v>1</v>
@@ -1718,35 +1648,35 @@
         <v>1</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G16" s="11">
         <v>4</v>
@@ -1767,46 +1697,46 @@
         <v>2</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="15" t="s">
-        <v>21</v>
+      <c r="A17" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -1818,44 +1748,44 @@
         <v>1</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J18" s="5">
         <v>2</v>
@@ -1870,43 +1800,43 @@
         <v>3</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="15" t="s">
-        <v>48</v>
+      <c r="A19" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -1918,50 +1848,50 @@
         <v>1</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L20" s="11">
         <v>2</v>
@@ -1973,31 +1903,31 @@
         <v>3</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
+      <c r="A21" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
@@ -2018,35 +1948,35 @@
         <v>1</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G22" s="11">
         <v>2</v>
@@ -2073,49 +2003,49 @@
         <v>3</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="15" t="s">
-        <v>27</v>
+      <c r="A23" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M23" s="12">
         <v>1</v>
@@ -2132,27 +2062,27 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I24" s="12">
         <v>4</v>
@@ -2171,49 +2101,49 @@
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="16" t="s">
-        <v>26</v>
+      <c r="A25" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M25" s="12">
         <v>1</v>
@@ -2230,42 +2160,42 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
@@ -2277,75 +2207,69 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="P27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="17"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="17"/>
-      <c r="P27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="14"/>
-      <c r="B28" s="2"/>
-      <c r="G28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -2362,54 +2286,60 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P26 Q21">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:P26">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P2">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P2">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2422,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
@@ -2436,7 +2366,7 @@
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -2480,7 +2410,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -2502,8 +2432,8 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>31</v>
+      <c r="A3" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -2567,7 +2497,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -2630,8 +2560,8 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
-        <v>32</v>
+      <c r="A5" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -2695,7 +2625,7 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2758,8 +2688,8 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
-        <v>33</v>
+      <c r="A7" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
@@ -2823,7 +2753,7 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2886,8 +2816,8 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="16" t="s">
-        <v>34</v>
+      <c r="A9" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -2951,7 +2881,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -3014,8 +2944,8 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>35</v>
+      <c r="A11" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -3079,7 +3009,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3142,8 +3072,8 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>36</v>
+      <c r="A13" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
@@ -3207,7 +3137,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -3270,8 +3200,8 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>37</v>
+      <c r="A15" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
@@ -3335,7 +3265,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -3398,8 +3328,8 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="15" t="s">
-        <v>38</v>
+      <c r="A17" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -3463,7 +3393,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -3526,8 +3456,8 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="15" t="s">
-        <v>39</v>
+      <c r="A19" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -3591,7 +3521,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -3654,8 +3584,8 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="16" t="s">
-        <v>40</v>
+      <c r="A21" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -3719,7 +3649,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3782,8 +3712,8 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="15" t="s">
-        <v>41</v>
+      <c r="A23" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -3847,7 +3777,7 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3910,8 +3840,8 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="16" t="s">
-        <v>42</v>
+      <c r="A25" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -3975,7 +3905,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -4038,82 +3968,69 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="P27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="17"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="17"/>
-      <c r="P27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="14"/>
-      <c r="B28" s="2"/>
-      <c r="G28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -4123,26 +4040,39 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:P26">
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -303,6 +303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -311,15 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1013,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1064,7 +1064,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1164,7 +1164,7 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1264,7 +1264,7 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1364,7 +1364,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1464,7 +1464,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1562,7 +1562,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1662,7 +1662,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1762,7 +1762,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1862,7 +1862,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1962,7 +1962,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2062,7 +2062,7 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2160,7 +2160,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2207,69 +2207,75 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="L27" s="14" t="s">
+      <c r="I27" s="17"/>
+      <c r="L27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="P27" s="14" t="s">
+      <c r="M27" s="17"/>
+      <c r="P27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="15"/>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="17"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="17"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="17"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="17"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -2286,12 +2292,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P26 Q21">
     <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
@@ -2344,7 +2344,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2432,7 +2432,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2497,7 +2497,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2625,7 +2625,7 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2753,7 +2753,7 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2881,7 +2881,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3009,7 +3009,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3137,7 +3137,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3265,7 +3265,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3393,7 +3393,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3521,7 +3521,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3649,7 +3649,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3777,7 +3777,7 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3905,7 +3905,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3968,69 +3968,82 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="L27" s="14" t="s">
+      <c r="I27" s="17"/>
+      <c r="L27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="P27" s="14" t="s">
+      <c r="M27" s="17"/>
+      <c r="P27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="15"/>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="17"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="17"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="17"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="17"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -4040,19 +4053,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
     <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
@@ -4129,6 +4129,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -303,6 +303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -312,14 +321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,7 +937,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -946,46 +949,46 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1013,7 +1016,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1064,7 +1067,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1116,7 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1164,7 +1167,7 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1216,7 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1264,7 +1267,7 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1316,7 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1364,7 +1367,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1416,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1464,7 +1467,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1562,7 +1565,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1611,7 +1614,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1662,7 +1665,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1762,7 +1765,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1814,7 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1862,7 +1865,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1914,7 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1962,7 +1965,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2014,7 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2062,7 +2065,7 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2112,7 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2160,7 +2163,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2207,75 +2210,69 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17" t="s">
+      <c r="I27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="P27" s="17" t="s">
+      <c r="M27" s="14"/>
+      <c r="P27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -2292,6 +2289,12 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P26 Q21">
     <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
@@ -2432,7 +2435,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2497,7 +2500,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2563,7 @@
       <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2625,7 +2628,7 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2691,7 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2753,7 +2756,7 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2816,7 +2819,7 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2881,7 +2884,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2947,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3009,7 +3012,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3072,7 +3075,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3137,7 +3140,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -3200,7 +3203,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3265,7 +3268,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3331,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3393,7 +3396,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3459,7 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3521,7 +3524,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -3584,7 +3587,7 @@
       <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3649,7 +3652,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -3712,7 +3715,7 @@
       <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3777,7 +3780,7 @@
       <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
@@ -3840,7 +3843,7 @@
       <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3905,7 +3908,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -3968,82 +3971,69 @@
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17" t="s">
+      <c r="I27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="P27" s="17" t="s">
+      <c r="M27" s="14"/>
+      <c r="P27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -4053,6 +4043,19 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
     <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="740" yWindow="680" windowWidth="22040" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="Deutsch" sheetId="1" r:id="rId1"/>
     <sheet name="English" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -72,22 +77,7 @@
     <t>Film für ersten Test aufnehmen</t>
   </si>
   <si>
-    <t>3-D Framework aufsetzen und Beispiele laufen lassen</t>
-  </si>
-  <si>
-    <t>Eigene kleine 3-D Welt kreieren (ev. mit Tunnel)</t>
-  </si>
-  <si>
-    <t>Film durch drücken der Pedale steuern (Frame gesteuertes fahren)</t>
-  </si>
-  <si>
     <t>Einführung und Besichtigung des  Fahrsimulators</t>
-  </si>
-  <si>
-    <t>PA Dokumentation schreiben</t>
-  </si>
-  <si>
-    <t>PA Dokumentation abschliessen</t>
   </si>
   <si>
     <t>Simulator auf den PC mit Beamer laden 
@@ -155,23 +145,38 @@
     <t/>
   </si>
   <si>
-    <t>Einzelne Elemente aus google 3d Warehouse in unsere 3-D Welt integrieren</t>
-  </si>
-  <si>
     <t>LabVIEW installieren</t>
   </si>
   <si>
     <t>LabVIEW Schnittstelle initialisieren</t>
   </si>
   <si>
-    <t>Anbindung der 3-D Welt an LabVIEW</t>
+    <t>Film durch Drücken der Pedale steuern (Frame gesteuertes fahren)</t>
+  </si>
+  <si>
+    <t>Eigene kleine 3D-Welt kreieren (ev. mit Tunnel)</t>
+  </si>
+  <si>
+    <t>Anbindung der 3D-Welt an LabVIEW</t>
+  </si>
+  <si>
+    <t>Dokumentation schreiben</t>
+  </si>
+  <si>
+    <t>Dokumentation abschliessen</t>
+  </si>
+  <si>
+    <t>Einzelne Elemente aus Google 3D Warehouse in unsere 3D-Welt integrieren</t>
+  </si>
+  <si>
+    <t>3D Framework aufsetzen und Beispiele laufen lassen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +197,29 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,44 +239,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -256,14 +284,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -271,10 +299,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -287,9 +317,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -303,6 +330,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -321,11 +372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
@@ -933,246 +983,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="78" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="78" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="C1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="13"/>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1181,52 +1231,52 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1234,99 +1284,99 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>44</v>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1334,48 +1384,48 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>44</v>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1383,562 +1433,562 @@
       <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>44</v>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="19"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>4</v>
       </c>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="12" t="s">
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="26"/>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="19"/>
-      <c r="B14" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="26"/>
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="11">
-        <v>4</v>
-      </c>
-      <c r="H14" s="11">
-        <v>2</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="10">
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>3</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="19"/>
-      <c r="B16" s="7" t="s">
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="26"/>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="11">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4</v>
-      </c>
-      <c r="I16" s="12">
-        <v>2</v>
-      </c>
-      <c r="J16" s="5">
-        <v>2</v>
-      </c>
-      <c r="K16" s="5">
-        <v>2</v>
-      </c>
-      <c r="L16" s="11">
-        <v>2</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="5">
-        <v>2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>2</v>
-      </c>
-      <c r="L18" s="11">
-        <v>2</v>
-      </c>
-      <c r="M18" s="12">
-        <v>3</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="19"/>
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="11">
-        <v>2</v>
-      </c>
-      <c r="M20" s="12">
+        <v>39</v>
+      </c>
+      <c r="L20" s="10">
+        <v>2</v>
+      </c>
+      <c r="M20" s="11">
         <v>3</v>
       </c>
       <c r="N20" s="5">
         <v>3</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
+        <v>39</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
         <v>1</v>
       </c>
       <c r="J21" s="5">
@@ -1947,47 +1997,47 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="11">
-        <v>1</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>44</v>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-      <c r="I22" s="12">
+        <v>39</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="11">
         <v>2</v>
       </c>
       <c r="J22" s="5">
@@ -1996,61 +2046,61 @@
       <c r="K22" s="5">
         <v>2</v>
       </c>
-      <c r="L22" s="11">
-        <v>2</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="L22" s="10">
+        <v>2</v>
+      </c>
+      <c r="M22" s="11">
         <v>3</v>
       </c>
       <c r="N22" s="5">
         <v>3</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="12">
+        <v>39</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="11">
         <v>1</v>
       </c>
       <c r="N23" s="5">
@@ -2059,35 +2109,35 @@
       <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="13"/>
+      <c r="P23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="12">
+        <v>39</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="11">
         <v>4</v>
       </c>
       <c r="J24" s="5">
@@ -2096,59 +2146,59 @@
       <c r="K24" s="5">
         <v>4</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>4</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>2</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="12">
+        <v>39</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="11">
         <v>1</v>
       </c>
       <c r="N25" s="5">
@@ -2157,118 +2207,118 @@
       <c r="O25" s="5">
         <v>1</v>
       </c>
-      <c r="P25" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="13"/>
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
         <v>2</v>
       </c>
-      <c r="P26" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="13"/>
+      <c r="P26" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="L27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="P27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="15"/>
+      <c r="H27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="L27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="P27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="17"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="G28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="17"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="17"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="17"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="17"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
@@ -2347,73 +2397,78 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="78" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="78" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="C1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
+      <c r="A2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -2422,23 +2477,23 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="13"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="str">
@@ -2457,15 +2512,15 @@
         <f>IF(Deutsch!F3="","",Deutsch!F3)</f>
         <v/>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="G3" s="10" t="str">
         <f>IF(Deutsch!G3="","",Deutsch!G3)</f>
         <v/>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="10" t="str">
         <f>IF(Deutsch!H3="","",Deutsch!H3)</f>
         <v/>
       </c>
-      <c r="I3" s="12" t="str">
+      <c r="I3" s="11" t="str">
         <f>IF(Deutsch!I3="","",Deutsch!I3)</f>
         <v/>
       </c>
@@ -2477,11 +2532,11 @@
         <f>IF(Deutsch!K3="","",Deutsch!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="11" t="str">
+      <c r="L3" s="10" t="str">
         <f>IF(Deutsch!L3="","",Deutsch!L3)</f>
         <v/>
       </c>
-      <c r="M3" s="12" t="str">
+      <c r="M3" s="11" t="str">
         <f>IF(Deutsch!M3="","",Deutsch!M3)</f>
         <v/>
       </c>
@@ -2493,15 +2548,15 @@
         <f>IF(Deutsch!O3="","",Deutsch!O3)</f>
         <v/>
       </c>
-      <c r="P3" s="11" t="str">
+      <c r="P3" s="10" t="str">
         <f>IF(Deutsch!P3="","",Deutsch!P3)</f>
         <v/>
       </c>
-      <c r="Q3" s="13"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="str">
@@ -2520,15 +2575,15 @@
         <f>IF(Deutsch!F4="","",Deutsch!F4)</f>
         <v/>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="10" t="str">
         <f>IF(Deutsch!G4="","",Deutsch!G4)</f>
         <v/>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="10" t="str">
         <f>IF(Deutsch!H4="","",Deutsch!H4)</f>
         <v/>
       </c>
-      <c r="I4" s="12" t="str">
+      <c r="I4" s="11" t="str">
         <f>IF(Deutsch!I4="","",Deutsch!I4)</f>
         <v/>
       </c>
@@ -2540,11 +2595,11 @@
         <f>IF(Deutsch!K4="","",Deutsch!K4)</f>
         <v/>
       </c>
-      <c r="L4" s="11" t="str">
+      <c r="L4" s="10" t="str">
         <f>IF(Deutsch!L4="","",Deutsch!L4)</f>
         <v/>
       </c>
-      <c r="M4" s="12" t="str">
+      <c r="M4" s="11" t="str">
         <f>IF(Deutsch!M4="","",Deutsch!M4)</f>
         <v/>
       </c>
@@ -2556,17 +2611,17 @@
         <f>IF(Deutsch!O4="","",Deutsch!O4)</f>
         <v/>
       </c>
-      <c r="P4" s="11" t="str">
+      <c r="P4" s="10" t="str">
         <f>IF(Deutsch!P4="","",Deutsch!P4)</f>
         <v/>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="str">
@@ -2585,15 +2640,15 @@
         <f>IF(Deutsch!F5="","",Deutsch!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="G5" s="10" t="str">
         <f>IF(Deutsch!G5="","",Deutsch!G5)</f>
         <v/>
       </c>
-      <c r="H5" s="11" t="str">
+      <c r="H5" s="10" t="str">
         <f>IF(Deutsch!H5="","",Deutsch!H5)</f>
         <v/>
       </c>
-      <c r="I5" s="12" t="str">
+      <c r="I5" s="11" t="str">
         <f>IF(Deutsch!I5="","",Deutsch!I5)</f>
         <v/>
       </c>
@@ -2605,11 +2660,11 @@
         <f>IF(Deutsch!K5="","",Deutsch!K5)</f>
         <v/>
       </c>
-      <c r="L5" s="11" t="str">
+      <c r="L5" s="10" t="str">
         <f>IF(Deutsch!L5="","",Deutsch!L5)</f>
         <v/>
       </c>
-      <c r="M5" s="12" t="str">
+      <c r="M5" s="11" t="str">
         <f>IF(Deutsch!M5="","",Deutsch!M5)</f>
         <v/>
       </c>
@@ -2621,15 +2676,15 @@
         <f>IF(Deutsch!O5="","",Deutsch!O5)</f>
         <v/>
       </c>
-      <c r="P5" s="11" t="str">
+      <c r="P5" s="10" t="str">
         <f>IF(Deutsch!P5="","",Deutsch!P5)</f>
         <v/>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="19"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="str">
@@ -2648,15 +2703,15 @@
         <f>IF(Deutsch!F6="","",Deutsch!F6)</f>
         <v/>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="10" t="str">
         <f>IF(Deutsch!G6="","",Deutsch!G6)</f>
         <v/>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="10" t="str">
         <f>IF(Deutsch!H6="","",Deutsch!H6)</f>
         <v/>
       </c>
-      <c r="I6" s="12" t="str">
+      <c r="I6" s="11" t="str">
         <f>IF(Deutsch!I6="","",Deutsch!I6)</f>
         <v/>
       </c>
@@ -2668,11 +2723,11 @@
         <f>IF(Deutsch!K6="","",Deutsch!K6)</f>
         <v/>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="10" t="str">
         <f>IF(Deutsch!L6="","",Deutsch!L6)</f>
         <v/>
       </c>
-      <c r="M6" s="12" t="str">
+      <c r="M6" s="11" t="str">
         <f>IF(Deutsch!M6="","",Deutsch!M6)</f>
         <v/>
       </c>
@@ -2684,17 +2739,17 @@
         <f>IF(Deutsch!O6="","",Deutsch!O6)</f>
         <v/>
       </c>
-      <c r="P6" s="11" t="str">
+      <c r="P6" s="10" t="str">
         <f>IF(Deutsch!P6="","",Deutsch!P6)</f>
         <v/>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="str">
@@ -2713,15 +2768,15 @@
         <f>IF(Deutsch!F7="","",Deutsch!F7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>IF(Deutsch!G7="","",Deutsch!G7)</f>
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="10" t="str">
         <f>IF(Deutsch!H7="","",Deutsch!H7)</f>
         <v/>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="I7" s="11" t="str">
         <f>IF(Deutsch!I7="","",Deutsch!I7)</f>
         <v/>
       </c>
@@ -2733,11 +2788,11 @@
         <f>IF(Deutsch!K7="","",Deutsch!K7)</f>
         <v/>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="10" t="str">
         <f>IF(Deutsch!L7="","",Deutsch!L7)</f>
         <v/>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>IF(Deutsch!M7="","",Deutsch!M7)</f>
         <v/>
       </c>
@@ -2749,15 +2804,15 @@
         <f>IF(Deutsch!O7="","",Deutsch!O7)</f>
         <v/>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="10" t="str">
         <f>IF(Deutsch!P7="","",Deutsch!P7)</f>
         <v/>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="str">
@@ -2776,15 +2831,15 @@
         <f>IF(Deutsch!F8="","",Deutsch!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="10" t="str">
         <f>IF(Deutsch!G8="","",Deutsch!G8)</f>
         <v/>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="10" t="str">
         <f>IF(Deutsch!H8="","",Deutsch!H8)</f>
         <v/>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" s="11" t="str">
         <f>IF(Deutsch!I8="","",Deutsch!I8)</f>
         <v/>
       </c>
@@ -2796,11 +2851,11 @@
         <f>IF(Deutsch!K8="","",Deutsch!K8)</f>
         <v/>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="10" t="str">
         <f>IF(Deutsch!L8="","",Deutsch!L8)</f>
         <v/>
       </c>
-      <c r="M8" s="12" t="str">
+      <c r="M8" s="11" t="str">
         <f>IF(Deutsch!M8="","",Deutsch!M8)</f>
         <v/>
       </c>
@@ -2812,17 +2867,17 @@
         <f>IF(Deutsch!O8="","",Deutsch!O8)</f>
         <v/>
       </c>
-      <c r="P8" s="11" t="str">
+      <c r="P8" s="10" t="str">
         <f>IF(Deutsch!P8="","",Deutsch!P8)</f>
         <v/>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="str">
@@ -2841,15 +2896,15 @@
         <f>IF(Deutsch!F9="","",Deutsch!F9)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>IF(Deutsch!G9="","",Deutsch!G9)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="10" t="str">
         <f>IF(Deutsch!H9="","",Deutsch!H9)</f>
         <v/>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" s="11" t="str">
         <f>IF(Deutsch!I9="","",Deutsch!I9)</f>
         <v/>
       </c>
@@ -2861,11 +2916,11 @@
         <f>IF(Deutsch!K9="","",Deutsch!K9)</f>
         <v/>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="10" t="str">
         <f>IF(Deutsch!L9="","",Deutsch!L9)</f>
         <v/>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="M9" s="11" t="str">
         <f>IF(Deutsch!M9="","",Deutsch!M9)</f>
         <v/>
       </c>
@@ -2877,15 +2932,15 @@
         <f>IF(Deutsch!O9="","",Deutsch!O9)</f>
         <v/>
       </c>
-      <c r="P9" s="11" t="str">
+      <c r="P9" s="10" t="str">
         <f>IF(Deutsch!P9="","",Deutsch!P9)</f>
         <v/>
       </c>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="str">
@@ -2904,15 +2959,15 @@
         <f>IF(Deutsch!F10="","",Deutsch!F10)</f>
         <v>2</v>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="10" t="str">
         <f>IF(Deutsch!G10="","",Deutsch!G10)</f>
         <v/>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="10" t="str">
         <f>IF(Deutsch!H10="","",Deutsch!H10)</f>
         <v/>
       </c>
-      <c r="I10" s="12" t="str">
+      <c r="I10" s="11" t="str">
         <f>IF(Deutsch!I10="","",Deutsch!I10)</f>
         <v/>
       </c>
@@ -2924,11 +2979,11 @@
         <f>IF(Deutsch!K10="","",Deutsch!K10)</f>
         <v/>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="10" t="str">
         <f>IF(Deutsch!L10="","",Deutsch!L10)</f>
         <v/>
       </c>
-      <c r="M10" s="12" t="str">
+      <c r="M10" s="11" t="str">
         <f>IF(Deutsch!M10="","",Deutsch!M10)</f>
         <v/>
       </c>
@@ -2940,17 +2995,17 @@
         <f>IF(Deutsch!O10="","",Deutsch!O10)</f>
         <v/>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="10" t="str">
         <f>IF(Deutsch!P10="","",Deutsch!P10)</f>
         <v/>
       </c>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="str">
@@ -2969,15 +3024,15 @@
         <f>IF(Deutsch!F11="","",Deutsch!F11)</f>
         <v/>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>IF(Deutsch!G11="","",Deutsch!G11)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f>IF(Deutsch!H11="","",Deutsch!H11)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" s="11" t="str">
         <f>IF(Deutsch!I11="","",Deutsch!I11)</f>
         <v/>
       </c>
@@ -2989,11 +3044,11 @@
         <f>IF(Deutsch!K11="","",Deutsch!K11)</f>
         <v/>
       </c>
-      <c r="L11" s="11" t="str">
+      <c r="L11" s="10" t="str">
         <f>IF(Deutsch!L11="","",Deutsch!L11)</f>
         <v/>
       </c>
-      <c r="M11" s="12" t="str">
+      <c r="M11" s="11" t="str">
         <f>IF(Deutsch!M11="","",Deutsch!M11)</f>
         <v/>
       </c>
@@ -3005,15 +3060,15 @@
         <f>IF(Deutsch!O11="","",Deutsch!O11)</f>
         <v/>
       </c>
-      <c r="P11" s="11" t="str">
+      <c r="P11" s="10" t="str">
         <f>IF(Deutsch!P11="","",Deutsch!P11)</f>
         <v/>
       </c>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="19"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="str">
@@ -3032,15 +3087,15 @@
         <f>IF(Deutsch!F12="","",Deutsch!F12)</f>
         <v>4</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>IF(Deutsch!G12="","",Deutsch!G12)</f>
         <v>2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f>IF(Deutsch!H12="","",Deutsch!H12)</f>
         <v>2</v>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="I12" s="11" t="str">
         <f>IF(Deutsch!I12="","",Deutsch!I12)</f>
         <v/>
       </c>
@@ -3052,11 +3107,11 @@
         <f>IF(Deutsch!K12="","",Deutsch!K12)</f>
         <v/>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="10" t="str">
         <f>IF(Deutsch!L12="","",Deutsch!L12)</f>
         <v/>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="11" t="str">
         <f>IF(Deutsch!M12="","",Deutsch!M12)</f>
         <v/>
       </c>
@@ -3068,17 +3123,17 @@
         <f>IF(Deutsch!O12="","",Deutsch!O12)</f>
         <v/>
       </c>
-      <c r="P12" s="11" t="str">
+      <c r="P12" s="10" t="str">
         <f>IF(Deutsch!P12="","",Deutsch!P12)</f>
         <v/>
       </c>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="str">
@@ -3097,15 +3152,15 @@
         <f>IF(Deutsch!F13="","",Deutsch!F13)</f>
         <v/>
       </c>
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="10" t="str">
         <f>IF(Deutsch!G13="","",Deutsch!G13)</f>
         <v/>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f>IF(Deutsch!H13="","",Deutsch!H13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f>IF(Deutsch!I13="","",Deutsch!I13)</f>
         <v>1</v>
       </c>
@@ -3117,11 +3172,11 @@
         <f>IF(Deutsch!K13="","",Deutsch!K13)</f>
         <v/>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="10" t="str">
         <f>IF(Deutsch!L13="","",Deutsch!L13)</f>
         <v/>
       </c>
-      <c r="M13" s="12" t="str">
+      <c r="M13" s="11" t="str">
         <f>IF(Deutsch!M13="","",Deutsch!M13)</f>
         <v/>
       </c>
@@ -3133,15 +3188,15 @@
         <f>IF(Deutsch!O13="","",Deutsch!O13)</f>
         <v/>
       </c>
-      <c r="P13" s="11" t="str">
+      <c r="P13" s="10" t="str">
         <f>IF(Deutsch!P13="","",Deutsch!P13)</f>
         <v/>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="19"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="str">
@@ -3160,15 +3215,15 @@
         <f>IF(Deutsch!F14="","",Deutsch!F14)</f>
         <v/>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>IF(Deutsch!G14="","",Deutsch!G14)</f>
         <v>4</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <f>IF(Deutsch!H14="","",Deutsch!H14)</f>
         <v>2</v>
       </c>
-      <c r="I14" s="12" t="str">
+      <c r="I14" s="11" t="str">
         <f>IF(Deutsch!I14="","",Deutsch!I14)</f>
         <v/>
       </c>
@@ -3180,11 +3235,11 @@
         <f>IF(Deutsch!K14="","",Deutsch!K14)</f>
         <v/>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="10" t="str">
         <f>IF(Deutsch!L14="","",Deutsch!L14)</f>
         <v/>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="11" t="str">
         <f>IF(Deutsch!M14="","",Deutsch!M14)</f>
         <v/>
       </c>
@@ -3196,17 +3251,17 @@
         <f>IF(Deutsch!O14="","",Deutsch!O14)</f>
         <v/>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="P14" s="10" t="str">
         <f>IF(Deutsch!P14="","",Deutsch!P14)</f>
         <v/>
       </c>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
@@ -3225,15 +3280,15 @@
         <f>IF(Deutsch!F15="","",Deutsch!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="10" t="str">
         <f>IF(Deutsch!G15="","",Deutsch!G15)</f>
         <v/>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="10" t="str">
         <f>IF(Deutsch!H15="","",Deutsch!H15)</f>
         <v/>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f>IF(Deutsch!I15="","",Deutsch!I15)</f>
         <v>1</v>
       </c>
@@ -3245,11 +3300,11 @@
         <f>IF(Deutsch!K15="","",Deutsch!K15)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f>IF(Deutsch!L15="","",Deutsch!L15)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="12" t="str">
+      <c r="M15" s="11" t="str">
         <f>IF(Deutsch!M15="","",Deutsch!M15)</f>
         <v/>
       </c>
@@ -3261,15 +3316,15 @@
         <f>IF(Deutsch!O15="","",Deutsch!O15)</f>
         <v/>
       </c>
-      <c r="P15" s="11" t="str">
+      <c r="P15" s="10" t="str">
         <f>IF(Deutsch!P15="","",Deutsch!P15)</f>
         <v/>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="19"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
@@ -3288,15 +3343,15 @@
         <f>IF(Deutsch!F16="","",Deutsch!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>IF(Deutsch!G16="","",Deutsch!G16)</f>
         <v>4</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f>IF(Deutsch!H16="","",Deutsch!H16)</f>
         <v>4</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f>IF(Deutsch!I16="","",Deutsch!I16)</f>
         <v>2</v>
       </c>
@@ -3308,11 +3363,11 @@
         <f>IF(Deutsch!K16="","",Deutsch!K16)</f>
         <v>2</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <f>IF(Deutsch!L16="","",Deutsch!L16)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="12" t="str">
+      <c r="M16" s="11" t="str">
         <f>IF(Deutsch!M16="","",Deutsch!M16)</f>
         <v/>
       </c>
@@ -3324,17 +3379,17 @@
         <f>IF(Deutsch!O16="","",Deutsch!O16)</f>
         <v/>
       </c>
-      <c r="P16" s="11" t="str">
+      <c r="P16" s="10" t="str">
         <f>IF(Deutsch!P16="","",Deutsch!P16)</f>
         <v/>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="str">
@@ -3353,15 +3408,15 @@
         <f>IF(Deutsch!F17="","",Deutsch!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="G17" s="10" t="str">
         <f>IF(Deutsch!G17="","",Deutsch!G17)</f>
         <v/>
       </c>
-      <c r="H17" s="11" t="str">
+      <c r="H17" s="10" t="str">
         <f>IF(Deutsch!H17="","",Deutsch!H17)</f>
         <v/>
       </c>
-      <c r="I17" s="12" t="str">
+      <c r="I17" s="11" t="str">
         <f>IF(Deutsch!I17="","",Deutsch!I17)</f>
         <v/>
       </c>
@@ -3373,11 +3428,11 @@
         <f>IF(Deutsch!K17="","",Deutsch!K17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <f>IF(Deutsch!L17="","",Deutsch!L17)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="12" t="str">
+      <c r="M17" s="11" t="str">
         <f>IF(Deutsch!M17="","",Deutsch!M17)</f>
         <v/>
       </c>
@@ -3389,15 +3444,15 @@
         <f>IF(Deutsch!O17="","",Deutsch!O17)</f>
         <v/>
       </c>
-      <c r="P17" s="11" t="str">
+      <c r="P17" s="10" t="str">
         <f>IF(Deutsch!P17="","",Deutsch!P17)</f>
         <v/>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="str">
@@ -3416,15 +3471,15 @@
         <f>IF(Deutsch!F18="","",Deutsch!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="11" t="str">
+      <c r="G18" s="10" t="str">
         <f>IF(Deutsch!G18="","",Deutsch!G18)</f>
         <v/>
       </c>
-      <c r="H18" s="11" t="str">
+      <c r="H18" s="10" t="str">
         <f>IF(Deutsch!H18="","",Deutsch!H18)</f>
         <v/>
       </c>
-      <c r="I18" s="12" t="str">
+      <c r="I18" s="11" t="str">
         <f>IF(Deutsch!I18="","",Deutsch!I18)</f>
         <v/>
       </c>
@@ -3436,11 +3491,11 @@
         <f>IF(Deutsch!K18="","",Deutsch!K18)</f>
         <v>2</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <f>IF(Deutsch!L18="","",Deutsch!L18)</f>
         <v>2</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <f>IF(Deutsch!M18="","",Deutsch!M18)</f>
         <v>3</v>
       </c>
@@ -3452,17 +3507,17 @@
         <f>IF(Deutsch!O18="","",Deutsch!O18)</f>
         <v/>
       </c>
-      <c r="P18" s="11" t="str">
+      <c r="P18" s="10" t="str">
         <f>IF(Deutsch!P18="","",Deutsch!P18)</f>
         <v/>
       </c>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="str">
@@ -3481,15 +3536,15 @@
         <f>IF(Deutsch!F19="","",Deutsch!F19)</f>
         <v/>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="G19" s="10" t="str">
         <f>IF(Deutsch!G19="","",Deutsch!G19)</f>
         <v/>
       </c>
-      <c r="H19" s="11" t="str">
+      <c r="H19" s="10" t="str">
         <f>IF(Deutsch!H19="","",Deutsch!H19)</f>
         <v/>
       </c>
-      <c r="I19" s="12" t="str">
+      <c r="I19" s="11" t="str">
         <f>IF(Deutsch!I19="","",Deutsch!I19)</f>
         <v/>
       </c>
@@ -3501,11 +3556,11 @@
         <f>IF(Deutsch!K19="","",Deutsch!K19)</f>
         <v>1</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <f>IF(Deutsch!L19="","",Deutsch!L19)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="12" t="str">
+      <c r="M19" s="11" t="str">
         <f>IF(Deutsch!M19="","",Deutsch!M19)</f>
         <v/>
       </c>
@@ -3517,15 +3572,15 @@
         <f>IF(Deutsch!O19="","",Deutsch!O19)</f>
         <v/>
       </c>
-      <c r="P19" s="11" t="str">
+      <c r="P19" s="10" t="str">
         <f>IF(Deutsch!P19="","",Deutsch!P19)</f>
         <v/>
       </c>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="str">
@@ -3544,15 +3599,15 @@
         <f>IF(Deutsch!F20="","",Deutsch!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="11" t="str">
+      <c r="G20" s="10" t="str">
         <f>IF(Deutsch!G20="","",Deutsch!G20)</f>
         <v/>
       </c>
-      <c r="H20" s="11" t="str">
+      <c r="H20" s="10" t="str">
         <f>IF(Deutsch!H20="","",Deutsch!H20)</f>
         <v/>
       </c>
-      <c r="I20" s="12" t="str">
+      <c r="I20" s="11" t="str">
         <f>IF(Deutsch!I20="","",Deutsch!I20)</f>
         <v/>
       </c>
@@ -3564,11 +3619,11 @@
         <f>IF(Deutsch!K20="","",Deutsch!K20)</f>
         <v/>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <f>IF(Deutsch!L20="","",Deutsch!L20)</f>
         <v>2</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <f>IF(Deutsch!M20="","",Deutsch!M20)</f>
         <v>3</v>
       </c>
@@ -3580,17 +3635,17 @@
         <f>IF(Deutsch!O20="","",Deutsch!O20)</f>
         <v/>
       </c>
-      <c r="P20" s="11" t="str">
+      <c r="P20" s="10" t="str">
         <f>IF(Deutsch!P20="","",Deutsch!P20)</f>
         <v/>
       </c>
-      <c r="Q20" s="13"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="str">
@@ -3609,15 +3664,15 @@
         <f>IF(Deutsch!F21="","",Deutsch!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>IF(Deutsch!G21="","",Deutsch!G21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <f>IF(Deutsch!H21="","",Deutsch!H21)</f>
         <v>1</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f>IF(Deutsch!I21="","",Deutsch!I21)</f>
         <v>1</v>
       </c>
@@ -3629,11 +3684,11 @@
         <f>IF(Deutsch!K21="","",Deutsch!K21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <f>IF(Deutsch!L21="","",Deutsch!L21)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="12" t="str">
+      <c r="M21" s="11" t="str">
         <f>IF(Deutsch!M21="","",Deutsch!M21)</f>
         <v/>
       </c>
@@ -3645,15 +3700,15 @@
         <f>IF(Deutsch!O21="","",Deutsch!O21)</f>
         <v/>
       </c>
-      <c r="P21" s="11" t="str">
+      <c r="P21" s="10" t="str">
         <f>IF(Deutsch!P21="","",Deutsch!P21)</f>
         <v/>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="19"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="str">
@@ -3672,15 +3727,15 @@
         <f>IF(Deutsch!F22="","",Deutsch!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>IF(Deutsch!G22="","",Deutsch!G22)</f>
         <v>2</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <f>IF(Deutsch!H22="","",Deutsch!H22)</f>
         <v>2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f>IF(Deutsch!I22="","",Deutsch!I22)</f>
         <v>2</v>
       </c>
@@ -3692,11 +3747,11 @@
         <f>IF(Deutsch!K22="","",Deutsch!K22)</f>
         <v>2</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <f>IF(Deutsch!L22="","",Deutsch!L22)</f>
         <v>2</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <f>IF(Deutsch!M22="","",Deutsch!M22)</f>
         <v>3</v>
       </c>
@@ -3708,17 +3763,17 @@
         <f>IF(Deutsch!O22="","",Deutsch!O22)</f>
         <v/>
       </c>
-      <c r="P22" s="11" t="str">
+      <c r="P22" s="10" t="str">
         <f>IF(Deutsch!P22="","",Deutsch!P22)</f>
         <v/>
       </c>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5" t="str">
@@ -3737,15 +3792,15 @@
         <f>IF(Deutsch!F23="","",Deutsch!F23)</f>
         <v/>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="G23" s="10" t="str">
         <f>IF(Deutsch!G23="","",Deutsch!G23)</f>
         <v/>
       </c>
-      <c r="H23" s="11" t="str">
+      <c r="H23" s="10" t="str">
         <f>IF(Deutsch!H23="","",Deutsch!H23)</f>
         <v/>
       </c>
-      <c r="I23" s="12" t="str">
+      <c r="I23" s="11" t="str">
         <f>IF(Deutsch!I23="","",Deutsch!I23)</f>
         <v/>
       </c>
@@ -3757,11 +3812,11 @@
         <f>IF(Deutsch!K23="","",Deutsch!K23)</f>
         <v/>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="10" t="str">
         <f>IF(Deutsch!L23="","",Deutsch!L23)</f>
         <v/>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <f>IF(Deutsch!M23="","",Deutsch!M23)</f>
         <v>1</v>
       </c>
@@ -3773,15 +3828,15 @@
         <f>IF(Deutsch!O23="","",Deutsch!O23)</f>
         <v>1</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="10">
         <f>IF(Deutsch!P23="","",Deutsch!P23)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="19"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="str">
@@ -3800,15 +3855,15 @@
         <f>IF(Deutsch!F24="","",Deutsch!F24)</f>
         <v/>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="G24" s="10" t="str">
         <f>IF(Deutsch!G24="","",Deutsch!G24)</f>
         <v/>
       </c>
-      <c r="H24" s="11" t="str">
+      <c r="H24" s="10" t="str">
         <f>IF(Deutsch!H24="","",Deutsch!H24)</f>
         <v/>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f>IF(Deutsch!I24="","",Deutsch!I24)</f>
         <v>4</v>
       </c>
@@ -3820,11 +3875,11 @@
         <f>IF(Deutsch!K24="","",Deutsch!K24)</f>
         <v>4</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <f>IF(Deutsch!L24="","",Deutsch!L24)</f>
         <v>4</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <f>IF(Deutsch!M24="","",Deutsch!M24)</f>
         <v>2</v>
       </c>
@@ -3836,17 +3891,17 @@
         <f>IF(Deutsch!O24="","",Deutsch!O24)</f>
         <v/>
       </c>
-      <c r="P24" s="11" t="str">
+      <c r="P24" s="10" t="str">
         <f>IF(Deutsch!P24="","",Deutsch!P24)</f>
         <v/>
       </c>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="5" t="str">
@@ -3865,15 +3920,15 @@
         <f>IF(Deutsch!F25="","",Deutsch!F25)</f>
         <v/>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="G25" s="10" t="str">
         <f>IF(Deutsch!G25="","",Deutsch!G25)</f>
         <v/>
       </c>
-      <c r="H25" s="11" t="str">
+      <c r="H25" s="10" t="str">
         <f>IF(Deutsch!H25="","",Deutsch!H25)</f>
         <v/>
       </c>
-      <c r="I25" s="12" t="str">
+      <c r="I25" s="11" t="str">
         <f>IF(Deutsch!I25="","",Deutsch!I25)</f>
         <v/>
       </c>
@@ -3885,11 +3940,11 @@
         <f>IF(Deutsch!K25="","",Deutsch!K25)</f>
         <v/>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="10" t="str">
         <f>IF(Deutsch!L25="","",Deutsch!L25)</f>
         <v/>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <f>IF(Deutsch!M25="","",Deutsch!M25)</f>
         <v>1</v>
       </c>
@@ -3901,15 +3956,15 @@
         <f>IF(Deutsch!O25="","",Deutsch!O25)</f>
         <v>1</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="10">
         <f>IF(Deutsch!P25="","",Deutsch!P25)</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="13"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="19"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5" t="str">
@@ -3928,15 +3983,15 @@
         <f>IF(Deutsch!F26="","",Deutsch!F26)</f>
         <v/>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="G26" s="10" t="str">
         <f>IF(Deutsch!G26="","",Deutsch!G26)</f>
         <v/>
       </c>
-      <c r="H26" s="11" t="str">
+      <c r="H26" s="10" t="str">
         <f>IF(Deutsch!H26="","",Deutsch!H26)</f>
         <v/>
       </c>
-      <c r="I26" s="12" t="str">
+      <c r="I26" s="11" t="str">
         <f>IF(Deutsch!I26="","",Deutsch!I26)</f>
         <v/>
       </c>
@@ -3948,11 +4003,11 @@
         <f>IF(Deutsch!K26="","",Deutsch!K26)</f>
         <v/>
       </c>
-      <c r="L26" s="11" t="str">
+      <c r="L26" s="10" t="str">
         <f>IF(Deutsch!L26="","",Deutsch!L26)</f>
         <v/>
       </c>
-      <c r="M26" s="12" t="str">
+      <c r="M26" s="11" t="str">
         <f>IF(Deutsch!M26="","",Deutsch!M26)</f>
         <v/>
       </c>
@@ -3964,72 +4019,72 @@
         <f>IF(Deutsch!O26="","",Deutsch!O26)</f>
         <v>2</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="10">
         <f>IF(Deutsch!P26="","",Deutsch!P26)</f>
         <v>2</v>
       </c>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="L27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="P27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="15"/>
+      <c r="H27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="L27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="P27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="17"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="2"/>
-      <c r="G28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="G28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="17"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="17"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="17"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="17"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
@@ -4119,19 +4174,29 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="680" windowWidth="22040" windowHeight="15800"/>
+    <workbookView xWindow="1240" yWindow="1120" windowWidth="22040" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="Deutsch" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <t>Einführung und Besichtigung des  Fahrsimulators</t>
   </si>
   <si>
-    <t>Simulator auf den PC mit Beamer laden 
-und allfällige Fehler beseitigen</t>
-  </si>
-  <si>
     <t>Woche 38</t>
   </si>
   <si>
@@ -148,12 +144,6 @@
     <t>LabVIEW installieren</t>
   </si>
   <si>
-    <t>LabVIEW Schnittstelle initialisieren</t>
-  </si>
-  <si>
-    <t>Film durch Drücken der Pedale steuern (Frame gesteuertes fahren)</t>
-  </si>
-  <si>
     <t>Eigene kleine 3D-Welt kreieren (ev. mit Tunnel)</t>
   </si>
   <si>
@@ -169,7 +159,17 @@
     <t>Einzelne Elemente aus Google 3D Warehouse in unsere 3D-Welt integrieren</t>
   </si>
   <si>
-    <t>3D Framework aufsetzen und Beispiele laufen lassen</t>
+    <t>3D-Framework aufsetzen und Beispiele laufen lassen</t>
+  </si>
+  <si>
+    <t>LabVIEW-Schnittstelle initialisieren</t>
+  </si>
+  <si>
+    <t>Film durch Drücken der Pedale steuern (framegesteuertes fahren)</t>
+  </si>
+  <si>
+    <t>Simulator auf den PC mit Projektor laden 
+und allfällige Fehler beseitigen</t>
   </si>
 </sst>
 </file>
@@ -354,6 +354,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -362,15 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1000,7 +1000,7 @@
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
@@ -1066,163 +1066,163 @@
       <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="26"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1231,52 +1231,52 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1288,95 +1288,95 @@
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="26"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="26" t="s">
-        <v>41</v>
+      <c r="A9" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1388,44 +1388,44 @@
         <v>1</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="26"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1434,55 +1434,55 @@
         <v>2</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="25" t="s">
-        <v>42</v>
+      <c r="A11" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
@@ -1491,41 +1491,41 @@
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="26"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
@@ -1538,52 +1538,52 @@
         <v>2</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="25" t="s">
-        <v>48</v>
+      <c r="A13" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -1592,44 +1592,44 @@
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="26"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="10">
         <v>4</v>
@@ -1638,55 +1638,55 @@
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="25" t="s">
-        <v>43</v>
+      <c r="A15" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="11">
         <v>1</v>
@@ -1701,35 +1701,35 @@
         <v>1</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="26"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="10">
         <v>4</v>
@@ -1750,46 +1750,46 @@
         <v>2</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25" t="s">
-        <v>44</v>
+      <c r="A17" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -1801,44 +1801,44 @@
         <v>1</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="26"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="5">
         <v>2</v>
@@ -1853,43 +1853,43 @@
         <v>3</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="25" t="s">
-        <v>47</v>
+      <c r="A19" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -1901,50 +1901,50 @@
         <v>1</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="26"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="10">
         <v>2</v>
@@ -1956,31 +1956,31 @@
         <v>3</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="26" t="s">
-        <v>45</v>
+      <c r="A21" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -2001,35 +2001,35 @@
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="26"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
@@ -2056,49 +2056,49 @@
         <v>3</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="25" t="s">
-        <v>19</v>
+      <c r="A23" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="11">
         <v>1</v>
@@ -2115,27 +2115,27 @@
       <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="26"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="11">
         <v>4</v>
@@ -2154,49 +2154,49 @@
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="26" t="s">
-        <v>46</v>
+      <c r="A25" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25" s="11">
         <v>1</v>
@@ -2213,42 +2213,42 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="26"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
@@ -2260,69 +2260,75 @@
       <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="L27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="P27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="25"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="L27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="21"/>
-      <c r="P27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="22"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="24"/>
-      <c r="B28" s="2"/>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="24"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="24"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
@@ -2339,12 +2345,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:P26 Q21">
     <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
@@ -2424,7 +2424,7 @@
     <row r="1" spans="1:17" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -2490,8 +2490,8 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>23</v>
+      <c r="A3" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -2555,7 +2555,7 @@
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2618,8 +2618,8 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="26" t="s">
-        <v>24</v>
+      <c r="A5" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -2683,7 +2683,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="26"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -2746,8 +2746,8 @@
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="26" t="s">
-        <v>25</v>
+      <c r="A7" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -2811,7 +2811,7 @@
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="26"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2874,8 +2874,8 @@
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="26" t="s">
-        <v>26</v>
+      <c r="A9" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -2939,7 +2939,7 @@
       <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="26"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -3002,8 +3002,8 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>27</v>
+      <c r="A11" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -3067,7 +3067,7 @@
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="26"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -3130,8 +3130,8 @@
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>28</v>
+      <c r="A13" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
@@ -3195,7 +3195,7 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="26"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>29</v>
+      <c r="A15" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -3323,7 +3323,7 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="26"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3386,8 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="25" t="s">
-        <v>30</v>
+      <c r="A17" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -3451,7 +3451,7 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="26"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -3514,8 +3514,8 @@
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="25" t="s">
-        <v>31</v>
+      <c r="A19" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -3579,7 +3579,7 @@
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="26"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
@@ -3642,8 +3642,8 @@
       <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="26" t="s">
-        <v>32</v>
+      <c r="A21" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -3707,7 +3707,7 @@
       <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="26"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3770,8 +3770,8 @@
       <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="25" t="s">
-        <v>33</v>
+      <c r="A23" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>15</v>
@@ -3835,7 +3835,7 @@
       <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="26"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -3898,8 +3898,8 @@
       <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="26" t="s">
-        <v>34</v>
+      <c r="A25" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
@@ -3963,7 +3963,7 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="26"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
@@ -4026,69 +4026,82 @@
       <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="L27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="P27" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="25"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="L27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="21"/>
-      <c r="P27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="22"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="24"/>
-      <c r="B28" s="2"/>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="24"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="24"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="24"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="24"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -4098,19 +4111,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="Q21 C2:P26">
     <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
